--- a/dados/Produtos_Agrupados_Completos_conciliados.xlsx
+++ b/dados/Produtos_Agrupados_Completos_conciliados.xlsx
@@ -1,27 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fábio\Desktop\CRM_APP\dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINDOWS\Documents\AREA DE TRABALHO - MEDTEXTIL\CRM_APP\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF13F85C-DAD4-4C3F-BEAF-72FEB676E15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E409C113-019B-4687-B60D-BB782EFDA009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{86B17377-32DB-438B-8A03-02E761646E6D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{86B17377-32DB-438B-8A03-02E761646E6D}"/>
   </bookViews>
   <sheets>
     <sheet name="CONCILIADA" sheetId="3" r:id="rId1"/>
+    <sheet name="Tabela de preços" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="DadosExternos_1" localSheetId="0" hidden="1">CONCILIADA!$A$1:$G$364</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateCount="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -36,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2594" uniqueCount="442">
   <si>
     <t>Grupo</t>
   </si>
@@ -1068,19 +1083,327 @@
   </si>
   <si>
     <t>CX_EMB</t>
+  </si>
+  <si>
+    <t>COMPRESSA DE GAZE NÃO ESTERIL</t>
+  </si>
+  <si>
+    <t>7,5 X 7,5  - 13x24 (aberta)</t>
+  </si>
+  <si>
+    <t>9 fios</t>
+  </si>
+  <si>
+    <t>105gr</t>
+  </si>
+  <si>
+    <t>11 fios</t>
+  </si>
+  <si>
+    <t>130gr</t>
+  </si>
+  <si>
+    <t>13 fios</t>
+  </si>
+  <si>
+    <t>150gr</t>
+  </si>
+  <si>
+    <t>160gr</t>
+  </si>
+  <si>
+    <t>180gr</t>
+  </si>
+  <si>
+    <t>GAZE HIDROFILA CIRCULAR</t>
+  </si>
+  <si>
+    <t>Tipo Queijo 91</t>
+  </si>
+  <si>
+    <t>210gr</t>
+  </si>
+  <si>
+    <t>250gr</t>
+  </si>
+  <si>
+    <t>270gr</t>
+  </si>
+  <si>
+    <t>300gr</t>
+  </si>
+  <si>
+    <t>320gr</t>
+  </si>
+  <si>
+    <t>340gr</t>
+  </si>
+  <si>
+    <t>COMPRESSA ESTÉRIL – 9FIOS</t>
+  </si>
+  <si>
+    <t>COMPRESSA ESTÉRIL – 11FIOS</t>
+  </si>
+  <si>
+    <t>COMPRESSA ESTÉRIL – 13FIOS</t>
+  </si>
+  <si>
+    <t>CAMPO OPERATÓRIO 45X50 (Com Radiopaco)</t>
+  </si>
+  <si>
+    <t>PCT C/50</t>
+  </si>
+  <si>
+    <t>CAMPO OPERATÓRIO 45X50 (Sem Radiopaco)</t>
+  </si>
+  <si>
+    <t>CAMPO OPERATÓRIO – Pré encolhido</t>
+  </si>
+  <si>
+    <t>PCT C/5 UND</t>
+  </si>
+  <si>
+    <t>PCT C/2 UND</t>
+  </si>
+  <si>
+    <t>ATADURA DE CREPE - FARMA</t>
+  </si>
+  <si>
+    <t>08CM x 1,20M</t>
+  </si>
+  <si>
+    <t>13 FIOS</t>
+  </si>
+  <si>
+    <t>115 DUZIAS</t>
+  </si>
+  <si>
+    <t>10CM x 1,20M</t>
+  </si>
+  <si>
+    <t>110 DUZIAS</t>
+  </si>
+  <si>
+    <t>12CM x 1,20M</t>
+  </si>
+  <si>
+    <t>15CM x 1,20M</t>
+  </si>
+  <si>
+    <t>90 DUZIAS</t>
+  </si>
+  <si>
+    <t>20CM x 1,20M</t>
+  </si>
+  <si>
+    <t>70 DUZIAS</t>
+  </si>
+  <si>
+    <t>30CM x 1,20M</t>
+  </si>
+  <si>
+    <t>50 DUZIAS</t>
+  </si>
+  <si>
+    <t>08CM x 1,80M</t>
+  </si>
+  <si>
+    <t>105 DUZIAS</t>
+  </si>
+  <si>
+    <t>10CM x 1,80M</t>
+  </si>
+  <si>
+    <t>100 DUZIAS</t>
+  </si>
+  <si>
+    <t>12CM x 1,80M</t>
+  </si>
+  <si>
+    <t>15CM x 1,80M</t>
+  </si>
+  <si>
+    <t>75 DUZIAS</t>
+  </si>
+  <si>
+    <t>20CM x 1,80M</t>
+  </si>
+  <si>
+    <t>60 DUZIAS</t>
+  </si>
+  <si>
+    <t>30CM x 1,80M</t>
+  </si>
+  <si>
+    <t>40 DUZIAS</t>
+  </si>
+  <si>
+    <t>ATADURA DE CREPE - HOSPITALAR</t>
+  </si>
+  <si>
+    <t>104 DUZIAS</t>
+  </si>
+  <si>
+    <t>52 DUZIAS</t>
+  </si>
+  <si>
+    <t>42 DUZIAS</t>
+  </si>
+  <si>
+    <t>86 DUZIAS</t>
+  </si>
+  <si>
+    <t>44 DUZIAS</t>
+  </si>
+  <si>
+    <t>28 DUZIAS</t>
+  </si>
+  <si>
+    <t>7,5 X 7,5  - 15x26 (aberta)</t>
+  </si>
+  <si>
+    <t>Ultra Têxtil</t>
+  </si>
+  <si>
+    <t>500 und</t>
+  </si>
+  <si>
+    <t>370gr</t>
+  </si>
+  <si>
+    <t>380gr</t>
+  </si>
+  <si>
+    <t>410gr</t>
+  </si>
+  <si>
+    <t>CAMPO OPERATÓRIO - LEVE (Com Radiopaco)</t>
+  </si>
+  <si>
+    <t>20gr</t>
+  </si>
+  <si>
+    <t>17gr</t>
+  </si>
+  <si>
+    <t>7,5 X 7,5 - 15x30 (aberta)</t>
+  </si>
+  <si>
+    <t>Medtextil</t>
+  </si>
+  <si>
+    <t>Tipo Queijo 91cm x 91m</t>
+  </si>
+  <si>
+    <t>1.460gr</t>
+  </si>
+  <si>
+    <t>1.530gr</t>
+  </si>
+  <si>
+    <t>1.650gr</t>
+  </si>
+  <si>
+    <t>COMPRESSA ESTÉRIL – 9FIOS   7,50 X 7,50</t>
+  </si>
+  <si>
+    <t>MedTextil</t>
+  </si>
+  <si>
+    <t>COMPRESSA ESTÉRIL – 11FIOS  7,50 X 7,50</t>
+  </si>
+  <si>
+    <t>COMPRESSA ESTÉRIL – 13FIOS  7,50 X 7,50</t>
+  </si>
+  <si>
+    <t>CAMPO OPERATÓRIO - LEVE</t>
+  </si>
+  <si>
+    <t>25gr</t>
+  </si>
+  <si>
+    <t>85 DUZIAS</t>
+  </si>
+  <si>
+    <t>80 DUZIAS</t>
+  </si>
+  <si>
+    <t>45 DUZIAS</t>
+  </si>
+  <si>
+    <t>95 DUZIAS</t>
+  </si>
+  <si>
+    <t>35 DUZIAS</t>
+  </si>
+  <si>
+    <t>66 DUZIAS</t>
+  </si>
+  <si>
+    <t>48 DUZIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32 DUZIAS</t>
+  </si>
+  <si>
+    <t>76 DUZIAS</t>
+  </si>
+  <si>
+    <t>38 DUZIAS</t>
+  </si>
+  <si>
+    <t>26 DUZIAS</t>
+  </si>
+  <si>
+    <t>Coluna1</t>
+  </si>
+  <si>
+    <t>Cod</t>
+  </si>
+  <si>
+    <t>Produto</t>
+  </si>
+  <si>
+    <t>Apresentacao</t>
+  </si>
+  <si>
+    <t>Fios</t>
+  </si>
+  <si>
+    <t>Unid_Caixa</t>
+  </si>
+  <si>
+    <t>Gramat</t>
+  </si>
+  <si>
+    <t>Preco</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;gramas&quot;"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1103,14 +1426,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
@@ -1141,8 +1473,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DadosExternos_1" connectionId="1" xr16:uid="{90421B2D-B31B-4527-AFD6-AE2D0A530A0F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="8">
-    <queryTableFields count="7">
+  <queryTableRefresh nextId="11" unboundColumnsRight="1">
+    <queryTableFields count="8">
       <queryTableField id="1" name="Grupo" tableColumnId="1"/>
       <queryTableField id="2" name="Cód." tableColumnId="2"/>
       <queryTableField id="3" name="Descrição" tableColumnId="3"/>
@@ -1150,15 +1482,16 @@
       <queryTableField id="5" name="Peso.2" tableColumnId="5"/>
       <queryTableField id="6" name="Cx Embarque" tableColumnId="6"/>
       <queryTableField id="7" name="Coluna1" tableColumnId="7"/>
+      <queryTableField id="9" dataBound="0" tableColumnId="9"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5499586E-A189-44D8-9C58-8F69F4EC7CA4}" name="Tabela14" displayName="Tabela14" ref="A1:G364" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G364" xr:uid="{5499586E-A189-44D8-9C58-8F69F4EC7CA4}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5499586E-A189-44D8-9C58-8F69F4EC7CA4}" name="Tabela14" displayName="Tabela14" ref="A1:H364" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H364" xr:uid="{5499586E-A189-44D8-9C58-8F69F4EC7CA4}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5387F357-AA02-4B91-B30F-AB45B122F19D}" uniqueName="1" name="Grupo" queryTableFieldId="1" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{3202AFED-4A11-4AD5-8FCF-B57F6545F53A}" uniqueName="2" name="ID_COD" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{AF8B37DC-8D9E-415B-8540-844DCFD3C2C2}" uniqueName="3" name="Descrição" queryTableFieldId="3" dataDxfId="2"/>
@@ -1166,15 +1499,33 @@
     <tableColumn id="5" xr3:uid="{5AEAA593-AC57-42D0-80C6-A7ADC3170E25}" uniqueName="5" name="Gramatura" queryTableFieldId="5" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{F34DF2E2-4CF9-47F8-995C-D81C98BE9A01}" uniqueName="6" name="CX_EMB" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{A488A8F9-38D4-4F27-9DEA-CC2F81D9C55C}" uniqueName="7" name="DESCRICAONF" queryTableFieldId="7"/>
+    <tableColumn id="9" xr3:uid="{079BA53C-EB2B-4DA2-B65C-026F685E0107}" uniqueName="9" name="Coluna1" queryTableFieldId="9" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{27DBEE36-9DBA-4905-80A4-0323F2DCF478}" name="Tabela1" displayName="Tabela1" ref="A1:H87" totalsRowShown="0">
+  <autoFilter ref="A1:H87" xr:uid="{27DBEE36-9DBA-4905-80A4-0323F2DCF478}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{A94A85EC-B805-4EC8-9C21-A01302433252}" name="Cod"/>
+    <tableColumn id="2" xr3:uid="{87878281-AC86-489D-A241-9AD749D55E55}" name="Produto"/>
+    <tableColumn id="3" xr3:uid="{18F95C83-2188-4A1E-A0B8-BFAA71296403}" name="Apresentacao"/>
+    <tableColumn id="4" xr3:uid="{F983C176-9E78-49AC-82B3-8AC9929A1254}" name="Fios"/>
+    <tableColumn id="5" xr3:uid="{03935235-5821-4D37-9442-36D791826C89}" name="Unid_Caixa"/>
+    <tableColumn id="6" xr3:uid="{D35B3B9C-9008-4300-92B8-8167B4A2CCB6}" name="Linha"/>
+    <tableColumn id="7" xr3:uid="{AC4BD377-A729-4B2F-8A6E-77B18350EAA3}" name="Gramat"/>
+    <tableColumn id="8" xr3:uid="{774C2D1E-0273-4A4C-B69B-084FE44C378A}" name="Preco"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1212,7 +1563,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1318,7 +1669,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1460,7 +1811,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1468,10 +1819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868BC1FE-16FA-4E4B-B34E-F84713378B87}">
-  <dimension ref="A1:G364"/>
+  <dimension ref="A1:H364"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,9 +1834,10 @@
     <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1507,8 +1859,11 @@
       <c r="G1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1530,8 +1885,11 @@
       <c r="G2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="2">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1553,8 +1911,11 @@
       <c r="G3" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1576,8 +1937,11 @@
       <c r="G4" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="2">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1599,8 +1963,11 @@
       <c r="G5" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="2">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1622,8 +1989,11 @@
       <c r="G6" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="2">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1645,8 +2015,11 @@
       <c r="G7" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="2">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1668,8 +2041,11 @@
       <c r="G8" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1691,8 +2067,11 @@
       <c r="G9" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="2">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1714,8 +2093,11 @@
       <c r="G10" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1737,8 +2119,11 @@
       <c r="G11" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="2">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1760,8 +2145,11 @@
       <c r="G12" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="2">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1783,8 +2171,11 @@
       <c r="G13" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="2">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1806,8 +2197,11 @@
       <c r="G14" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="2">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1829,8 +2223,11 @@
       <c r="G15" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="2">
+        <v>6.98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1852,8 +2249,11 @@
       <c r="G16" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1875,8 +2275,11 @@
       <c r="G17" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="2">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1898,8 +2301,11 @@
       <c r="G18" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="2">
+        <v>7.96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1921,8 +2327,11 @@
       <c r="G19" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="2">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1944,8 +2353,12 @@
       <c r="G20" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="2">
+        <f>(Tabela14[[#This Row],[Gramatura]]*6.99)/105</f>
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1967,8 +2380,12 @@
       <c r="G21" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="2">
+        <f>(Tabela14[[#This Row],[Gramatura]]*6.99)/105</f>
+        <v>5.3257142857142865</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1990,8 +2407,12 @@
       <c r="G22" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="2">
+        <f>(Tabela14[[#This Row],[Gramatura]]*6.99)/105</f>
+        <v>5.991428571428572</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -2004,8 +2425,8 @@
       <c r="D23" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>209</v>
+      <c r="E23" s="3">
+        <v>105</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
@@ -2013,8 +2434,11 @@
       <c r="G23" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="2">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -2036,8 +2460,11 @@
       <c r="G24" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="2">
+        <v>7.322857142857143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -2059,8 +2486,11 @@
       <c r="G25" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="2">
+        <v>7.9885714285714293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -2082,8 +2512,11 @@
       <c r="G26" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="2">
+        <v>8.6542857142857148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -2105,8 +2538,11 @@
       <c r="G27" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="2">
+        <v>9.32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -2128,8 +2564,11 @@
       <c r="G28" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="2">
+        <v>10.88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -2151,8 +2590,11 @@
       <c r="G29" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="2">
+        <v>10.651428571428573</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -2174,8 +2616,11 @@
       <c r="G30" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="2">
+        <v>11.317142857142857</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -2197,8 +2642,11 @@
       <c r="G31" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="2">
+        <v>11.982857142857144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -2220,8 +2668,11 @@
       <c r="G32" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="2">
+        <v>12.648571428571429</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -2243,8 +2694,11 @@
       <c r="G33" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="2">
+        <v>13.314285714285715</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -2266,8 +2720,11 @@
       <c r="G34" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="2">
+        <v>14.46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -2289,8 +2746,11 @@
       <c r="G35" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="2">
+        <v>15.148571428571429</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -2312,8 +2772,11 @@
       <c r="G36" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="2">
+        <v>15.837142857142858</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -2335,8 +2798,11 @@
       <c r="G37" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="2">
+        <v>16.525714285714287</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -2358,8 +2824,11 @@
       <c r="G38" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="2">
+        <v>17.214285714285715</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -2381,8 +2850,11 @@
       <c r="G39" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="2">
+        <v>17.902857142857144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -2404,8 +2876,11 @@
       <c r="G40" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="2">
+        <v>18.591428571428573</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -2427,8 +2902,11 @@
       <c r="G41" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="2">
+        <v>19.28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -2450,8 +2928,11 @@
       <c r="G42" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="2">
+        <v>19.96857142857143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -2473,8 +2954,11 @@
       <c r="G43" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="2">
+        <v>20.657142857142858</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -2496,8 +2980,11 @@
       <c r="G44" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="2">
+        <v>21.345714285714287</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -2519,8 +3006,11 @@
       <c r="G45" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="2">
+        <v>22.034285714285719</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -2542,8 +3032,11 @@
       <c r="G46" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="2">
+        <v>27.880000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -2565,8 +3058,11 @@
       <c r="G47" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="2">
+        <v>29.207619047619044</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -2588,8 +3084,11 @@
       <c r="G48" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="2">
+        <v>7.4923076923076923</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -2611,8 +3110,11 @@
       <c r="G49" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="2">
+        <v>8.2415384615384628</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -2634,8 +3136,11 @@
       <c r="G50" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="2">
+        <v>8.9907692307692297</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -2657,8 +3162,11 @@
       <c r="G51" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="2">
+        <v>9.74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -2680,8 +3188,11 @@
       <c r="G52" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="2">
+        <v>10.489230769230771</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -2703,8 +3214,11 @@
       <c r="G53" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="2">
+        <v>11.238461538461538</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -2726,8 +3240,11 @@
       <c r="G54" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="2">
+        <v>11.98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -2749,8 +3266,11 @@
       <c r="G55" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="2">
+        <v>12.736923076923077</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -2772,8 +3292,11 @@
       <c r="G56" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="2">
+        <v>13.486153846153847</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>17</v>
       </c>
@@ -2795,8 +3318,11 @@
       <c r="G57" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="2">
+        <v>14.235384615384616</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -2818,8 +3344,11 @@
       <c r="G58" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="2">
+        <v>14.984615384615385</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -2841,8 +3370,11 @@
       <c r="G59" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="2">
+        <v>15.733846153846155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -2864,8 +3396,11 @@
       <c r="G60" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" s="2">
+        <v>16.483076923076926</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -2887,8 +3422,11 @@
       <c r="G61" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="2">
+        <v>17.232307692307696</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -2910,8 +3448,11 @@
       <c r="G62" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="2">
+        <v>18.73076923076923</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -2933,8 +3474,11 @@
       <c r="G63" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="2">
+        <v>16.579999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -2956,8 +3500,11 @@
       <c r="G64" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="2">
+        <v>17.270833333333332</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -2979,8 +3526,11 @@
       <c r="G65" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="2">
+        <v>17.961666666666662</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>17</v>
       </c>
@@ -3002,8 +3552,11 @@
       <c r="G66" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="2">
+        <v>18.652499999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -3025,8 +3578,11 @@
       <c r="G67" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="2">
+        <v>19.34333333333333</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>17</v>
       </c>
@@ -3048,8 +3604,11 @@
       <c r="G68" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="2">
+        <v>20.034166666666668</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -3071,8 +3630,11 @@
       <c r="G69" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="2">
+        <v>20.724999999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -3094,8 +3656,11 @@
       <c r="G70" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" s="2">
+        <v>21.415833333333332</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -3117,8 +3682,11 @@
       <c r="G71" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" s="2">
+        <v>22.106666666666666</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -3140,8 +3708,11 @@
       <c r="G72" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" s="2">
+        <v>22.797499999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -3163,8 +3734,11 @@
       <c r="G73" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" s="2">
+        <v>23.488333333333333</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -3186,8 +3760,11 @@
       <c r="G74" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" s="2">
+        <v>28.77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>17</v>
       </c>
@@ -3209,8 +3786,11 @@
       <c r="G75" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" s="2">
+        <v>29.96875</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -3232,8 +3812,11 @@
       <c r="G76" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" s="2">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>20</v>
       </c>
@@ -3255,8 +3838,11 @@
       <c r="G77" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" s="2">
+        <v>8.69</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>20</v>
       </c>
@@ -3278,8 +3864,11 @@
       <c r="G78" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" s="2">
+        <v>9.48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -3301,8 +3890,11 @@
       <c r="G79" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" s="2">
+        <v>10.27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -3324,8 +3916,11 @@
       <c r="G80" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" s="2">
+        <v>11.06</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -3347,8 +3942,11 @@
       <c r="G81" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" s="2">
+        <v>11.85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -3370,8 +3968,11 @@
       <c r="G82" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" s="2">
+        <v>12.64</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -3393,8 +3994,11 @@
       <c r="G83" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" s="2">
+        <v>13.43</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -3416,8 +4020,11 @@
       <c r="G84" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84" s="2">
+        <v>14.22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -3439,8 +4046,11 @@
       <c r="G85" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85" s="2">
+        <v>15.01</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -3462,8 +4072,11 @@
       <c r="G86" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86" s="2">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>20</v>
       </c>
@@ -3485,8 +4098,11 @@
       <c r="G87" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" s="2">
+        <v>16.59</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>20</v>
       </c>
@@ -3508,8 +4124,11 @@
       <c r="G88" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88" s="2">
+        <v>17.38</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>20</v>
       </c>
@@ -3531,8 +4150,11 @@
       <c r="G89" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" s="2">
+        <v>18.170000000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>20</v>
       </c>
@@ -3554,8 +4176,11 @@
       <c r="G90" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90" s="2">
+        <v>18.96</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>20</v>
       </c>
@@ -3577,8 +4202,11 @@
       <c r="G91" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91" s="2">
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>20</v>
       </c>
@@ -3600,8 +4228,11 @@
       <c r="G92" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92" s="2">
+        <v>20.54</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -3623,8 +4254,11 @@
       <c r="G93" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93" s="2">
+        <v>13.525185185185185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -3646,8 +4280,11 @@
       <c r="G94" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94" s="2">
+        <v>14.948888888888888</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>20</v>
       </c>
@@ -3669,8 +4306,11 @@
       <c r="G95" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95" s="2">
+        <v>19.22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>20</v>
       </c>
@@ -3692,8 +4332,11 @@
       <c r="G96" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96" s="2">
+        <v>19.931851851851849</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>20</v>
       </c>
@@ -3715,8 +4358,11 @@
       <c r="G97" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97" s="2">
+        <v>20.6437037037037</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>20</v>
       </c>
@@ -3738,8 +4384,11 @@
       <c r="G98" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98" s="2">
+        <v>21.355555555555554</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>20</v>
       </c>
@@ -3761,8 +4410,11 @@
       <c r="G99" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99" s="2">
+        <v>22.067407407407408</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>20</v>
       </c>
@@ -3784,8 +4436,11 @@
       <c r="G100" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100" s="2">
+        <v>22.779259259259259</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>20</v>
       </c>
@@ -3807,8 +4462,11 @@
       <c r="G101" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101" s="2">
+        <v>23.49111111111111</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>20</v>
       </c>
@@ -3830,8 +4488,11 @@
       <c r="G102" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102" s="2">
+        <v>24.20296296296296</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>20</v>
       </c>
@@ -3853,8 +4514,11 @@
       <c r="G103" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103" s="2">
+        <v>30.77</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>20</v>
       </c>
@@ -3876,8 +4540,11 @@
       <c r="G104" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104" s="2">
+        <v>31.909629629629631</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4566,11 @@
       <c r="G105" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105" s="2">
+        <v>33.049259259259259</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>20</v>
       </c>
@@ -3922,8 +4592,11 @@
       <c r="G106" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106" s="2">
+        <v>34.18888888888889</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -3945,8 +4618,11 @@
       <c r="G107" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107" s="2">
+        <v>35.328518518518521</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -3968,8 +4644,11 @@
       <c r="G108" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108" s="2">
+        <v>36.468148148148146</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>20</v>
       </c>
@@ -3991,8 +4670,11 @@
       <c r="G109" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109" s="2">
+        <v>37.607777777777777</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>20</v>
       </c>
@@ -4014,8 +4696,11 @@
       <c r="G110" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110" s="2">
+        <v>38.747407407407408</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>22</v>
       </c>
@@ -4037,8 +4722,11 @@
       <c r="G111" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111" s="2">
+        <v>12.499047619047618</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>22</v>
       </c>
@@ -4060,8 +4748,11 @@
       <c r="G112" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112" s="2">
+        <v>13.234285714285713</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>22</v>
       </c>
@@ -4083,8 +4774,11 @@
       <c r="G113" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113" s="2">
+        <v>13.969523809523809</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>22</v>
       </c>
@@ -4106,8 +4800,11 @@
       <c r="G114" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114" s="2">
+        <v>14.704761904761904</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>22</v>
       </c>
@@ -4129,8 +4826,11 @@
       <c r="G115" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115" s="2">
+        <v>15.440000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -4152,8 +4852,11 @@
       <c r="G116" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116" s="2">
+        <v>16.175238095238093</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>22</v>
       </c>
@@ -4175,8 +4878,11 @@
       <c r="G117" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117" s="2">
+        <v>16.910476190476189</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>22</v>
       </c>
@@ -4198,8 +4904,11 @@
       <c r="G118" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118" s="2">
+        <v>17.645714285714284</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>22</v>
       </c>
@@ -4221,8 +4930,11 @@
       <c r="G119" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119" s="2">
+        <v>18.38095238095238</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>22</v>
       </c>
@@ -4244,8 +4956,11 @@
       <c r="G120" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H120" s="2">
+        <v>19.116190476190475</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>22</v>
       </c>
@@ -4267,8 +4982,11 @@
       <c r="G121" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H121" s="2">
+        <v>19.851428571428571</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>22</v>
       </c>
@@ -4290,8 +5008,11 @@
       <c r="G122" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122" s="2">
+        <v>20.586666666666666</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>22</v>
       </c>
@@ -4313,8 +5034,11 @@
       <c r="G123" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H123" s="2">
+        <v>21.321904761904758</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>22</v>
       </c>
@@ -4336,8 +5060,11 @@
       <c r="G124" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H124" s="2">
+        <v>22.057142857142857</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>22</v>
       </c>
@@ -4359,8 +5086,11 @@
       <c r="G125" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H125" s="2">
+        <v>22.792380952380952</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>22</v>
       </c>
@@ -4382,8 +5112,11 @@
       <c r="G126" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H126" s="2">
+        <v>23.527619047619048</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>22</v>
       </c>
@@ -4405,8 +5138,11 @@
       <c r="G127" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H127" s="2">
+        <v>24.262857142857143</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>22</v>
       </c>
@@ -4428,8 +5164,11 @@
       <c r="G128" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H128" s="2">
+        <v>27.264324324324328</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>22</v>
       </c>
@@ -4451,8 +5190,11 @@
       <c r="G129" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H129" s="2">
+        <v>28.066216216216215</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>22</v>
       </c>
@@ -4474,8 +5216,11 @@
       <c r="G130" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H130" s="2">
+        <v>28.86810810810811</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>22</v>
       </c>
@@ -4497,8 +5242,11 @@
       <c r="G131" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H131" s="2">
+        <v>29.670000000000005</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>22</v>
       </c>
@@ -4520,8 +5268,11 @@
       <c r="G132" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H132" s="2">
+        <v>30.471891891891893</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>22</v>
       </c>
@@ -4543,8 +5294,11 @@
       <c r="G133" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H133" s="2">
+        <v>31.273783783783788</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>22</v>
       </c>
@@ -4566,8 +5320,11 @@
       <c r="G134" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H134" s="2">
+        <v>32.075675675675676</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>22</v>
       </c>
@@ -4589,8 +5346,11 @@
       <c r="G135" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H135" s="2">
+        <v>32.877567567567567</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>22</v>
       </c>
@@ -4612,8 +5372,11 @@
       <c r="G136" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H136" s="2">
+        <v>32.075675675675676</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>22</v>
       </c>
@@ -4635,8 +5398,11 @@
       <c r="G137" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H137" s="2">
+        <v>32.877567567567567</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>22</v>
       </c>
@@ -4658,8 +5424,11 @@
       <c r="G138" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H138" s="2">
+        <v>33.679459459459466</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>24</v>
       </c>
@@ -4681,8 +5450,11 @@
       <c r="G139" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H139" s="2">
+        <v>15.8424</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>24</v>
       </c>
@@ -4704,8 +5476,11 @@
       <c r="G140" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H140" s="2">
+        <v>16.596799999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>24</v>
       </c>
@@ -4727,8 +5502,11 @@
       <c r="G141" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H141" s="2">
+        <v>17.351200000000002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>24</v>
       </c>
@@ -4750,8 +5528,11 @@
       <c r="G142" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H142" s="2">
+        <v>18.105599999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>24</v>
       </c>
@@ -4773,8 +5554,11 @@
       <c r="G143" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H143" s="2">
+        <v>18.86</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>24</v>
       </c>
@@ -4796,8 +5580,11 @@
       <c r="G144" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H144" s="2">
+        <v>19.614399999999996</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>24</v>
       </c>
@@ -4819,8 +5606,11 @@
       <c r="G145" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H145" s="2">
+        <v>20.3688</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>24</v>
       </c>
@@ -4842,8 +5632,11 @@
       <c r="G146" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H146" s="2">
+        <v>21.123200000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>24</v>
       </c>
@@ -4865,8 +5658,11 @@
       <c r="G147" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H147" s="2">
+        <v>21.877599999999997</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>24</v>
       </c>
@@ -4888,8 +5684,11 @@
       <c r="G148" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H148" s="2">
+        <v>22.632000000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>24</v>
       </c>
@@ -4911,8 +5710,11 @@
       <c r="G149" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H149" s="2">
+        <v>23.386399999999998</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>24</v>
       </c>
@@ -4934,8 +5736,11 @@
       <c r="G150" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H150" s="2">
+        <v>23.7636</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>24</v>
       </c>
@@ -4957,8 +5762,11 @@
       <c r="G151" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H151" s="2">
+        <v>24.140799999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>24</v>
       </c>
@@ -4980,8 +5788,11 @@
       <c r="G152" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H152" s="2">
+        <v>24.895199999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>24</v>
       </c>
@@ -5003,8 +5814,11 @@
       <c r="G153" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H153" s="2">
+        <v>19.313684210526315</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>24</v>
       </c>
@@ -5026,8 +5840,11 @@
       <c r="G154" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H154" s="2">
+        <v>27.361052631578943</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>24</v>
       </c>
@@ -5049,8 +5866,11 @@
       <c r="G155" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H155" s="2">
+        <v>28.16578947368421</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>24</v>
       </c>
@@ -5072,8 +5892,11 @@
       <c r="G156" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H156" s="2">
+        <v>28.970526315789471</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>24</v>
       </c>
@@ -5095,8 +5918,11 @@
       <c r="G157" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H157" s="2">
+        <v>29.775263157894734</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>24</v>
       </c>
@@ -5118,8 +5944,11 @@
       <c r="G158" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H158" s="2">
+        <v>30.58</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>24</v>
       </c>
@@ -5141,8 +5970,11 @@
       <c r="G159" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H159" s="2">
+        <v>31.384736842105259</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>24</v>
       </c>
@@ -5164,8 +5996,11 @@
       <c r="G160" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H160" s="2">
+        <v>32.189473684210526</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>24</v>
       </c>
@@ -5187,8 +6022,11 @@
       <c r="G161" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H161" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>24</v>
       </c>
@@ -5210,8 +6048,11 @@
       <c r="G162" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H162" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>24</v>
       </c>
@@ -5233,8 +6074,11 @@
       <c r="G163" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H163" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>26</v>
       </c>
@@ -5256,8 +6100,11 @@
       <c r="G164" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H164" s="2">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>26</v>
       </c>
@@ -5279,8 +6126,11 @@
       <c r="G165" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H165" s="2">
+        <v>16.59</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>26</v>
       </c>
@@ -5302,8 +6152,11 @@
       <c r="G166" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H166" s="2">
+        <v>17.38</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>26</v>
       </c>
@@ -5325,8 +6178,11 @@
       <c r="G167" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H167" s="2">
+        <v>18.170000000000002</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>26</v>
       </c>
@@ -5348,8 +6204,11 @@
       <c r="G168" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H168" s="2">
+        <v>18.959999999999997</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>26</v>
       </c>
@@ -5371,8 +6230,11 @@
       <c r="G169" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H169" s="2">
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>26</v>
       </c>
@@ -5394,8 +6256,11 @@
       <c r="G170" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H170" s="2">
+        <v>20.54</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>26</v>
       </c>
@@ -5417,8 +6282,11 @@
       <c r="G171" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H171" s="2">
+        <v>19.88</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>26</v>
       </c>
@@ -5440,8 +6308,11 @@
       <c r="G172" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H172" s="2">
+        <v>22.12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>26</v>
       </c>
@@ -5463,8 +6334,11 @@
       <c r="G173" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H173" s="2">
+        <v>22.91</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>26</v>
       </c>
@@ -5486,8 +6360,11 @@
       <c r="G174" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H174" s="2">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>26</v>
       </c>
@@ -5509,8 +6386,11 @@
       <c r="G175" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H175" s="2">
+        <v>24.490000000000002</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>26</v>
       </c>
@@ -5532,8 +6412,11 @@
       <c r="G176" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H176" s="2">
+        <v>25.28</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>26</v>
       </c>
@@ -5555,31 +6438,37 @@
       <c r="G177" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="H177" s="2">
+        <v>26.069999999999997</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="4">
         <v>286</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D178" t="s">
-        <v>4</v>
-      </c>
-      <c r="E178" s="1" t="s">
+      <c r="D178" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E178" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="F178" t="s">
-        <v>10</v>
-      </c>
-      <c r="G178" t="s">
+      <c r="F178" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="4" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H178" s="6">
+        <v>26.86</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>26</v>
       </c>
@@ -5601,8 +6490,11 @@
       <c r="G179" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H179" s="2">
+        <v>27.65</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>26</v>
       </c>
@@ -5624,8 +6516,11 @@
       <c r="G180" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H180" s="2">
+        <v>28.44</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>26</v>
       </c>
@@ -5647,8 +6542,11 @@
       <c r="G181" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H181" s="2">
+        <v>29.229999999999997</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>26</v>
       </c>
@@ -5670,8 +6568,11 @@
       <c r="G182" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H182" s="2">
+        <v>16.068292682926828</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>26</v>
       </c>
@@ -5693,8 +6594,11 @@
       <c r="G183" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H183" s="2">
+        <v>18.478536585365852</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>26</v>
       </c>
@@ -5716,8 +6620,11 @@
       <c r="G184" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H184" s="2">
+        <v>30.529756097560973</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>26</v>
       </c>
@@ -5739,8 +6646,11 @@
       <c r="G185" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H185" s="2">
+        <v>31.333170731707312</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>26</v>
       </c>
@@ -5762,8 +6672,11 @@
       <c r="G186" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H186" s="2">
+        <v>32.136585365853655</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>26</v>
       </c>
@@ -5785,8 +6698,11 @@
       <c r="G187" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H187" s="2">
+        <v>32.94</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>26</v>
       </c>
@@ -5808,8 +6724,11 @@
       <c r="G188" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H188" s="2">
+        <v>33.74341463414634</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>26</v>
       </c>
@@ -5831,8 +6750,11 @@
       <c r="G189" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H189" s="2">
+        <v>34.546829268292683</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>26</v>
       </c>
@@ -5854,8 +6776,11 @@
       <c r="G190" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H190" s="2">
+        <v>35.350243902439018</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>26</v>
       </c>
@@ -5877,8 +6802,11 @@
       <c r="G191" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H191" s="2">
+        <v>36.153658536585361</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>26</v>
       </c>
@@ -5900,8 +6828,11 @@
       <c r="G192" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H192" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>26</v>
       </c>
@@ -5923,8 +6854,11 @@
       <c r="G193" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H193" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>28</v>
       </c>
@@ -5946,8 +6880,11 @@
       <c r="G194" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H194" s="2">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>28</v>
       </c>
@@ -5969,8 +6906,11 @@
       <c r="G195" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H195" s="2">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>28</v>
       </c>
@@ -5992,8 +6932,11 @@
       <c r="G196" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H196" s="2">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>28</v>
       </c>
@@ -6015,8 +6958,11 @@
       <c r="G197" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H197" s="2">
+        <v>5.63</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>28</v>
       </c>
@@ -6038,8 +6984,11 @@
       <c r="G198" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H198" s="2">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>28</v>
       </c>
@@ -6058,8 +7007,11 @@
       <c r="F199" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H199" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>28</v>
       </c>
@@ -6081,8 +7033,11 @@
       <c r="G200" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H200" s="2">
+        <v>10.74</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>28</v>
       </c>
@@ -6101,8 +7056,11 @@
       <c r="F201" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H201" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>28</v>
       </c>
@@ -6124,8 +7082,11 @@
       <c r="G202" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H202" s="2">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>28</v>
       </c>
@@ -6147,8 +7108,11 @@
       <c r="G203" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H203" s="2">
+        <v>6.78</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>28</v>
       </c>
@@ -6170,8 +7134,11 @@
       <c r="G204" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H204" s="2">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>28</v>
       </c>
@@ -6193,8 +7160,11 @@
       <c r="G205" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H205" s="2">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>28</v>
       </c>
@@ -6213,8 +7183,11 @@
       <c r="F206" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H206" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>28</v>
       </c>
@@ -6236,8 +7209,11 @@
       <c r="G207" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H207" s="2">
+        <v>14.74</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>28</v>
       </c>
@@ -6256,8 +7232,11 @@
       <c r="F208" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H208" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>28</v>
       </c>
@@ -6279,8 +7258,11 @@
       <c r="G209" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H209" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>28</v>
       </c>
@@ -6302,8 +7284,11 @@
       <c r="G210" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H210" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>28</v>
       </c>
@@ -6325,8 +7310,11 @@
       <c r="G211" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H211" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>28</v>
       </c>
@@ -6348,8 +7336,11 @@
       <c r="G212" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H212" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>28</v>
       </c>
@@ -6368,8 +7359,11 @@
       <c r="F213" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H213" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>28</v>
       </c>
@@ -6391,8 +7385,11 @@
       <c r="G214" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H214" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>28</v>
       </c>
@@ -6411,8 +7408,11 @@
       <c r="F215" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H215" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>28</v>
       </c>
@@ -6434,8 +7434,11 @@
       <c r="G216" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H216" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>28</v>
       </c>
@@ -6457,8 +7460,11 @@
       <c r="G217" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H217" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>28</v>
       </c>
@@ -6480,8 +7486,11 @@
       <c r="G218" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H218" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>28</v>
       </c>
@@ -6503,8 +7512,11 @@
       <c r="G219" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H219" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>28</v>
       </c>
@@ -6523,8 +7535,11 @@
       <c r="F220" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H220" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>28</v>
       </c>
@@ -6546,8 +7561,11 @@
       <c r="G221" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H221" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>28</v>
       </c>
@@ -6566,8 +7584,11 @@
       <c r="F222" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H222" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>28</v>
       </c>
@@ -6589,8 +7610,11 @@
       <c r="G223" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H223" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>28</v>
       </c>
@@ -6612,8 +7636,11 @@
       <c r="G224" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H224" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>28</v>
       </c>
@@ -6635,8 +7662,11 @@
       <c r="G225" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H225" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>28</v>
       </c>
@@ -6658,8 +7688,11 @@
       <c r="G226" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H226" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>28</v>
       </c>
@@ -6678,8 +7711,11 @@
       <c r="F227" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H227" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>28</v>
       </c>
@@ -6701,8 +7737,11 @@
       <c r="G228" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H228" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>28</v>
       </c>
@@ -6721,8 +7760,11 @@
       <c r="F229" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H229" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>28</v>
       </c>
@@ -6744,8 +7786,11 @@
       <c r="G230" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H230" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>28</v>
       </c>
@@ -6767,8 +7812,11 @@
       <c r="G231" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H231" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>28</v>
       </c>
@@ -6790,8 +7838,11 @@
       <c r="G232" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H232" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>28</v>
       </c>
@@ -6813,8 +7864,11 @@
       <c r="G233" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H233" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>28</v>
       </c>
@@ -6833,8 +7887,11 @@
       <c r="F234" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H234" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>28</v>
       </c>
@@ -6856,8 +7913,11 @@
       <c r="G235" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H235" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>28</v>
       </c>
@@ -6876,8 +7936,11 @@
       <c r="F236" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H236" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>28</v>
       </c>
@@ -6899,8 +7962,11 @@
       <c r="G237" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H237" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>28</v>
       </c>
@@ -6922,8 +7988,11 @@
       <c r="G238" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H238" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>28</v>
       </c>
@@ -6945,8 +8014,11 @@
       <c r="G239" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H239" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>28</v>
       </c>
@@ -6968,8 +8040,11 @@
       <c r="G240" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H240" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>28</v>
       </c>
@@ -6988,8 +8063,11 @@
       <c r="F241" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H241" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>28</v>
       </c>
@@ -7011,8 +8089,11 @@
       <c r="G242" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H242" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>28</v>
       </c>
@@ -7031,8 +8112,11 @@
       <c r="F243" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H243" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>28</v>
       </c>
@@ -7054,8 +8138,11 @@
       <c r="G244" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H244" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>28</v>
       </c>
@@ -7077,8 +8164,11 @@
       <c r="G245" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H245" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>28</v>
       </c>
@@ -7100,8 +8190,11 @@
       <c r="G246" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H246" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>28</v>
       </c>
@@ -7123,8 +8216,11 @@
       <c r="G247" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H247" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>28</v>
       </c>
@@ -7143,8 +8239,11 @@
       <c r="F248" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H248" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>28</v>
       </c>
@@ -7166,8 +8265,11 @@
       <c r="G249" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H249" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>28</v>
       </c>
@@ -7186,8 +8288,11 @@
       <c r="F250" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H250" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>28</v>
       </c>
@@ -7209,8 +8314,11 @@
       <c r="G251" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H251" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>28</v>
       </c>
@@ -7232,8 +8340,11 @@
       <c r="G252" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H252" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>28</v>
       </c>
@@ -7255,8 +8366,11 @@
       <c r="G253" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H253" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>28</v>
       </c>
@@ -7278,8 +8392,11 @@
       <c r="G254" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H254" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>28</v>
       </c>
@@ -7298,8 +8415,11 @@
       <c r="F255" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H255" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>28</v>
       </c>
@@ -7321,8 +8441,11 @@
       <c r="G256" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H256" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>28</v>
       </c>
@@ -7341,8 +8464,11 @@
       <c r="F257" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H257" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>28</v>
       </c>
@@ -7364,8 +8490,11 @@
       <c r="G258" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H258" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>28</v>
       </c>
@@ -7387,8 +8516,11 @@
       <c r="G259" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H259" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>28</v>
       </c>
@@ -7410,8 +8542,11 @@
       <c r="G260" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H260" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>28</v>
       </c>
@@ -7433,8 +8568,11 @@
       <c r="G261" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H261" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>28</v>
       </c>
@@ -7453,8 +8591,11 @@
       <c r="F262" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H262" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>28</v>
       </c>
@@ -7476,8 +8617,11 @@
       <c r="G263" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H263" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>28</v>
       </c>
@@ -7499,8 +8643,11 @@
       <c r="G264" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H264" s="2">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>28</v>
       </c>
@@ -7522,8 +8669,11 @@
       <c r="G265" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H265" s="2">
+        <v>4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>28</v>
       </c>
@@ -7545,8 +8695,11 @@
       <c r="G266" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H266" s="2">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>28</v>
       </c>
@@ -7568,8 +8721,11 @@
       <c r="G267" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H267" s="2">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>28</v>
       </c>
@@ -7591,8 +8747,11 @@
       <c r="G268" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H268" s="2">
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>28</v>
       </c>
@@ -7611,8 +8770,11 @@
       <c r="F269" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H269" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>28</v>
       </c>
@@ -7634,8 +8796,11 @@
       <c r="G270" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H270" s="2">
+        <v>12.58</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>28</v>
       </c>
@@ -7654,8 +8819,11 @@
       <c r="F271" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H271" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>28</v>
       </c>
@@ -7677,8 +8845,11 @@
       <c r="G272" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H272" s="2">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>28</v>
       </c>
@@ -7700,8 +8871,11 @@
       <c r="G273" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H273" s="2">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>28</v>
       </c>
@@ -7723,8 +8897,11 @@
       <c r="G274" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H274" s="2">
+        <v>9.3699999999999992</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>28</v>
       </c>
@@ -7746,8 +8923,11 @@
       <c r="G275" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H275" s="2">
+        <v>12.03</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>28</v>
       </c>
@@ -7766,8 +8946,11 @@
       <c r="F276" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H276" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>28</v>
       </c>
@@ -7789,8 +8972,11 @@
       <c r="G277" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H277" s="2">
+        <v>17.34</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>63</v>
       </c>
@@ -7809,8 +8995,11 @@
       <c r="F278" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H278" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>63</v>
       </c>
@@ -7832,8 +9021,11 @@
       <c r="G279" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H279" s="2">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>63</v>
       </c>
@@ -7855,8 +9047,11 @@
       <c r="G280" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H280" s="2">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>63</v>
       </c>
@@ -7878,8 +9073,11 @@
       <c r="G281" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H281" s="2">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>63</v>
       </c>
@@ -7901,8 +9099,11 @@
       <c r="G282" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H282" s="2">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>63</v>
       </c>
@@ -7921,8 +9122,11 @@
       <c r="F283" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H283" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>63</v>
       </c>
@@ -7944,8 +9148,11 @@
       <c r="G284" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H284" s="2">
+        <v>10.42</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>63</v>
       </c>
@@ -7964,8 +9171,11 @@
       <c r="F285" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H285" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>63</v>
       </c>
@@ -7987,8 +9197,11 @@
       <c r="G286" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H286" s="2">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>63</v>
       </c>
@@ -8010,8 +9223,11 @@
       <c r="G287" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H287" s="2">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>63</v>
       </c>
@@ -8033,8 +9249,11 @@
       <c r="G288" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H288" s="2">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>63</v>
       </c>
@@ -8056,8 +9275,11 @@
       <c r="G289" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H289" s="2">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>63</v>
       </c>
@@ -8076,8 +9298,11 @@
       <c r="F290" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H290" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>63</v>
       </c>
@@ -8099,8 +9324,11 @@
       <c r="G291" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H291" s="2">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>63</v>
       </c>
@@ -8119,8 +9347,11 @@
       <c r="F292" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H292" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>63</v>
       </c>
@@ -8142,8 +9373,11 @@
       <c r="G293" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H293" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>63</v>
       </c>
@@ -8165,8 +9399,11 @@
       <c r="G294" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H294" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>63</v>
       </c>
@@ -8188,8 +9425,11 @@
       <c r="G295" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H295" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>63</v>
       </c>
@@ -8211,8 +9451,11 @@
       <c r="G296" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H296" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>63</v>
       </c>
@@ -8231,8 +9474,11 @@
       <c r="F297" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H297" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>63</v>
       </c>
@@ -8254,8 +9500,11 @@
       <c r="G298" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H298" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>63</v>
       </c>
@@ -8274,8 +9523,11 @@
       <c r="F299" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H299" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>63</v>
       </c>
@@ -8297,8 +9549,11 @@
       <c r="G300" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H300" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>63</v>
       </c>
@@ -8320,8 +9575,11 @@
       <c r="G301" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H301" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>63</v>
       </c>
@@ -8343,8 +9601,11 @@
       <c r="G302" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H302" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>63</v>
       </c>
@@ -8366,8 +9627,11 @@
       <c r="G303" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H303" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>63</v>
       </c>
@@ -8386,8 +9650,11 @@
       <c r="F304" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H304" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>63</v>
       </c>
@@ -8409,8 +9676,11 @@
       <c r="G305" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H305" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>63</v>
       </c>
@@ -8429,8 +9699,11 @@
       <c r="F306" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H306" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>63</v>
       </c>
@@ -8452,8 +9725,11 @@
       <c r="G307" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H307" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>63</v>
       </c>
@@ -8475,8 +9751,11 @@
       <c r="G308" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H308" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>63</v>
       </c>
@@ -8498,8 +9777,11 @@
       <c r="G309" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H309" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>63</v>
       </c>
@@ -8521,8 +9803,11 @@
       <c r="G310" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H310" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>63</v>
       </c>
@@ -8541,8 +9826,11 @@
       <c r="F311" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H311" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>63</v>
       </c>
@@ -8564,8 +9852,11 @@
       <c r="G312" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H312" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>63</v>
       </c>
@@ -8584,8 +9875,11 @@
       <c r="F313" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H313" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>63</v>
       </c>
@@ -8607,8 +9901,11 @@
       <c r="G314" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H314" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>63</v>
       </c>
@@ -8630,8 +9927,11 @@
       <c r="G315" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H315" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>63</v>
       </c>
@@ -8653,8 +9953,11 @@
       <c r="G316" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H316" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>63</v>
       </c>
@@ -8676,8 +9979,11 @@
       <c r="G317" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H317" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>63</v>
       </c>
@@ -8696,8 +10002,11 @@
       <c r="F318" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H318" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>63</v>
       </c>
@@ -8719,8 +10028,11 @@
       <c r="G319" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H319" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>63</v>
       </c>
@@ -8739,8 +10051,11 @@
       <c r="F320" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H320" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>63</v>
       </c>
@@ -8762,8 +10077,11 @@
       <c r="G321" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H321" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>63</v>
       </c>
@@ -8785,8 +10103,11 @@
       <c r="G322" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H322" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>63</v>
       </c>
@@ -8808,8 +10129,11 @@
       <c r="G323" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H323" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>63</v>
       </c>
@@ -8831,8 +10155,11 @@
       <c r="G324" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H324" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>63</v>
       </c>
@@ -8851,8 +10178,11 @@
       <c r="F325" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H325" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>63</v>
       </c>
@@ -8874,8 +10204,11 @@
       <c r="G326" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H326" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>63</v>
       </c>
@@ -8894,8 +10227,11 @@
       <c r="F327" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H327" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>63</v>
       </c>
@@ -8917,8 +10253,11 @@
       <c r="G328" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H328" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>63</v>
       </c>
@@ -8940,8 +10279,11 @@
       <c r="G329" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H329" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>63</v>
       </c>
@@ -8963,8 +10305,11 @@
       <c r="G330" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H330" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>63</v>
       </c>
@@ -8986,8 +10331,11 @@
       <c r="G331" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H331" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>63</v>
       </c>
@@ -9006,8 +10354,11 @@
       <c r="F332" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H332" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>63</v>
       </c>
@@ -9029,8 +10380,11 @@
       <c r="G333" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H333" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>63</v>
       </c>
@@ -9049,8 +10403,11 @@
       <c r="F334" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H334" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>63</v>
       </c>
@@ -9072,8 +10429,11 @@
       <c r="G335" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H335" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>63</v>
       </c>
@@ -9095,8 +10455,11 @@
       <c r="G336" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H336" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>63</v>
       </c>
@@ -9118,8 +10481,11 @@
       <c r="G337" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H337" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>63</v>
       </c>
@@ -9141,8 +10507,11 @@
       <c r="G338" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H338" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>63</v>
       </c>
@@ -9161,8 +10530,11 @@
       <c r="F339" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H339" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>63</v>
       </c>
@@ -9184,8 +10556,11 @@
       <c r="G340" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H340" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>63</v>
       </c>
@@ -9204,8 +10579,11 @@
       <c r="F341" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H341" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>63</v>
       </c>
@@ -9227,8 +10605,11 @@
       <c r="G342" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H342" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>63</v>
       </c>
@@ -9250,8 +10631,11 @@
       <c r="G343" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H343" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>63</v>
       </c>
@@ -9273,8 +10657,11 @@
       <c r="G344" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H344" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>63</v>
       </c>
@@ -9296,8 +10683,11 @@
       <c r="G345" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H345" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>63</v>
       </c>
@@ -9316,8 +10706,11 @@
       <c r="F346" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H346" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>63</v>
       </c>
@@ -9339,8 +10732,11 @@
       <c r="G347" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H347" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>63</v>
       </c>
@@ -9359,8 +10755,11 @@
       <c r="F348" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H348" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>63</v>
       </c>
@@ -9382,8 +10781,11 @@
       <c r="G349" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H349" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>63</v>
       </c>
@@ -9405,8 +10807,11 @@
       <c r="G350" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H350" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>63</v>
       </c>
@@ -9428,8 +10833,11 @@
       <c r="G351" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H351" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>63</v>
       </c>
@@ -9451,8 +10859,11 @@
       <c r="G352" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H352" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>63</v>
       </c>
@@ -9471,8 +10882,11 @@
       <c r="F353" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H353" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>63</v>
       </c>
@@ -9494,8 +10908,11 @@
       <c r="G354" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H354" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>63</v>
       </c>
@@ -9514,8 +10931,11 @@
       <c r="F355" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H355" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>63</v>
       </c>
@@ -9537,8 +10957,11 @@
       <c r="G356" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H356" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>63</v>
       </c>
@@ -9560,8 +10983,11 @@
       <c r="G357" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H357" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>63</v>
       </c>
@@ -9583,8 +11009,11 @@
       <c r="G358" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H358" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>63</v>
       </c>
@@ -9606,8 +11035,11 @@
       <c r="G359" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H359" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>63</v>
       </c>
@@ -9626,8 +11058,11 @@
       <c r="F360" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H360" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>63</v>
       </c>
@@ -9649,8 +11084,11 @@
       <c r="G361" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H361" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>3</v>
       </c>
@@ -9672,8 +11110,11 @@
       <c r="G362" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H362" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>3</v>
       </c>
@@ -9695,8 +11136,11 @@
       <c r="G363" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H363" s="2" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>3</v>
       </c>
@@ -9718,12 +11162,2069 @@
       <c r="G364" t="s">
         <v>264</v>
       </c>
+      <c r="H364" s="2" t="e">
+        <v>#N/A</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0014AB-9A55-4EC9-AE95-8A590DAFD95F}">
+  <dimension ref="A1:H87"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="28.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>440</v>
+      </c>
+      <c r="H1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E2">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>347</v>
+      </c>
+      <c r="H2">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>310</v>
+      </c>
+      <c r="B3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E3">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>349</v>
+      </c>
+      <c r="H3">
+        <v>9.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>326</v>
+      </c>
+      <c r="B4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>351</v>
+      </c>
+      <c r="H4">
+        <v>11.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>351</v>
+      </c>
+      <c r="H5">
+        <v>10.88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>313</v>
+      </c>
+      <c r="B6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>352</v>
+      </c>
+      <c r="H6">
+        <v>11.98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>329</v>
+      </c>
+      <c r="B7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H7">
+        <v>14.22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C8" t="s">
+        <v>355</v>
+      </c>
+      <c r="D8" t="s">
+        <v>346</v>
+      </c>
+      <c r="E8">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>356</v>
+      </c>
+      <c r="H8">
+        <v>15.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>263</v>
+      </c>
+      <c r="B9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C9" t="s">
+        <v>355</v>
+      </c>
+      <c r="D9" t="s">
+        <v>348</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>357</v>
+      </c>
+      <c r="H9">
+        <v>18.86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>279</v>
+      </c>
+      <c r="B10" t="s">
+        <v>354</v>
+      </c>
+      <c r="C10" t="s">
+        <v>355</v>
+      </c>
+      <c r="D10" t="s">
+        <v>350</v>
+      </c>
+      <c r="E10">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>358</v>
+      </c>
+      <c r="H10">
+        <v>19.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>354</v>
+      </c>
+      <c r="C11" t="s">
+        <v>355</v>
+      </c>
+      <c r="D11" t="s">
+        <v>346</v>
+      </c>
+      <c r="E11">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>359</v>
+      </c>
+      <c r="H11">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>271</v>
+      </c>
+      <c r="B12" t="s">
+        <v>354</v>
+      </c>
+      <c r="C12" t="s">
+        <v>355</v>
+      </c>
+      <c r="D12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E12">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>360</v>
+      </c>
+      <c r="H12">
+        <v>24.86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>286</v>
+      </c>
+      <c r="B13" t="s">
+        <v>354</v>
+      </c>
+      <c r="C13" t="s">
+        <v>355</v>
+      </c>
+      <c r="D13" t="s">
+        <v>350</v>
+      </c>
+      <c r="E13">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>361</v>
+      </c>
+      <c r="H13">
+        <v>26.86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C14" t="s">
+        <v>345</v>
+      </c>
+      <c r="D14" t="s">
+        <v>346</v>
+      </c>
+      <c r="E14">
+        <v>1000</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>363</v>
+      </c>
+      <c r="C15" t="s">
+        <v>345</v>
+      </c>
+      <c r="D15" t="s">
+        <v>348</v>
+      </c>
+      <c r="E15">
+        <v>1000</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C16" t="s">
+        <v>345</v>
+      </c>
+      <c r="D16" t="s">
+        <v>350</v>
+      </c>
+      <c r="E16">
+        <v>1000</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1586</v>
+      </c>
+      <c r="B17" t="s">
+        <v>365</v>
+      </c>
+      <c r="C17" t="s">
+        <v>366</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1797</v>
+      </c>
+      <c r="B18" t="s">
+        <v>367</v>
+      </c>
+      <c r="C18" t="s">
+        <v>366</v>
+      </c>
+      <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1588</v>
+      </c>
+      <c r="B19" t="s">
+        <v>368</v>
+      </c>
+      <c r="C19" t="s">
+        <v>369</v>
+      </c>
+      <c r="E19">
+        <v>150</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1587</v>
+      </c>
+      <c r="B20" t="s">
+        <v>368</v>
+      </c>
+      <c r="C20" t="s">
+        <v>370</v>
+      </c>
+      <c r="E20">
+        <v>300</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1644</v>
+      </c>
+      <c r="B21" t="s">
+        <v>371</v>
+      </c>
+      <c r="C21" t="s">
+        <v>372</v>
+      </c>
+      <c r="D21" t="s">
+        <v>373</v>
+      </c>
+      <c r="E21" t="s">
+        <v>374</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1589</v>
+      </c>
+      <c r="B22" t="s">
+        <v>371</v>
+      </c>
+      <c r="C22" t="s">
+        <v>375</v>
+      </c>
+      <c r="D22" t="s">
+        <v>373</v>
+      </c>
+      <c r="E22" t="s">
+        <v>376</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1590</v>
+      </c>
+      <c r="B23" t="s">
+        <v>371</v>
+      </c>
+      <c r="C23" t="s">
+        <v>377</v>
+      </c>
+      <c r="D23" t="s">
+        <v>373</v>
+      </c>
+      <c r="E23" t="s">
+        <v>376</v>
+      </c>
+      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1592</v>
+      </c>
+      <c r="B24" t="s">
+        <v>371</v>
+      </c>
+      <c r="C24" t="s">
+        <v>378</v>
+      </c>
+      <c r="D24" t="s">
+        <v>373</v>
+      </c>
+      <c r="E24" t="s">
+        <v>379</v>
+      </c>
+      <c r="F24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>5.63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1593</v>
+      </c>
+      <c r="B25" t="s">
+        <v>371</v>
+      </c>
+      <c r="C25" t="s">
+        <v>380</v>
+      </c>
+      <c r="D25" t="s">
+        <v>373</v>
+      </c>
+      <c r="E25" t="s">
+        <v>381</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1594</v>
+      </c>
+      <c r="B26" t="s">
+        <v>371</v>
+      </c>
+      <c r="C26" t="s">
+        <v>382</v>
+      </c>
+      <c r="D26" t="s">
+        <v>373</v>
+      </c>
+      <c r="E26" t="s">
+        <v>383</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>10.74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1973</v>
+      </c>
+      <c r="B27" t="s">
+        <v>371</v>
+      </c>
+      <c r="C27" t="s">
+        <v>384</v>
+      </c>
+      <c r="D27" t="s">
+        <v>373</v>
+      </c>
+      <c r="E27" t="s">
+        <v>385</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1595</v>
+      </c>
+      <c r="B28" t="s">
+        <v>371</v>
+      </c>
+      <c r="C28" t="s">
+        <v>386</v>
+      </c>
+      <c r="D28" t="s">
+        <v>373</v>
+      </c>
+      <c r="E28" t="s">
+        <v>387</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1596</v>
+      </c>
+      <c r="B29" t="s">
+        <v>371</v>
+      </c>
+      <c r="C29" t="s">
+        <v>388</v>
+      </c>
+      <c r="D29" t="s">
+        <v>373</v>
+      </c>
+      <c r="E29" t="s">
+        <v>379</v>
+      </c>
+      <c r="F29" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29">
+        <v>6.78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1597</v>
+      </c>
+      <c r="B30" t="s">
+        <v>371</v>
+      </c>
+      <c r="C30" t="s">
+        <v>389</v>
+      </c>
+      <c r="D30" t="s">
+        <v>373</v>
+      </c>
+      <c r="E30" t="s">
+        <v>390</v>
+      </c>
+      <c r="F30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1598</v>
+      </c>
+      <c r="B31" t="s">
+        <v>371</v>
+      </c>
+      <c r="C31" t="s">
+        <v>391</v>
+      </c>
+      <c r="D31" t="s">
+        <v>373</v>
+      </c>
+      <c r="E31" t="s">
+        <v>392</v>
+      </c>
+      <c r="F31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1599</v>
+      </c>
+      <c r="B32" t="s">
+        <v>371</v>
+      </c>
+      <c r="C32" t="s">
+        <v>393</v>
+      </c>
+      <c r="D32" t="s">
+        <v>373</v>
+      </c>
+      <c r="E32" t="s">
+        <v>394</v>
+      </c>
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>14.74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1616</v>
+      </c>
+      <c r="B33" t="s">
+        <v>395</v>
+      </c>
+      <c r="C33" t="s">
+        <v>375</v>
+      </c>
+      <c r="D33" t="s">
+        <v>373</v>
+      </c>
+      <c r="E33" t="s">
+        <v>376</v>
+      </c>
+      <c r="F33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1617</v>
+      </c>
+      <c r="B34" t="s">
+        <v>395</v>
+      </c>
+      <c r="C34" t="s">
+        <v>377</v>
+      </c>
+      <c r="D34" t="s">
+        <v>373</v>
+      </c>
+      <c r="E34" t="s">
+        <v>396</v>
+      </c>
+      <c r="F34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1618</v>
+      </c>
+      <c r="B35" t="s">
+        <v>395</v>
+      </c>
+      <c r="C35" t="s">
+        <v>378</v>
+      </c>
+      <c r="D35" t="s">
+        <v>373</v>
+      </c>
+      <c r="E35" t="s">
+        <v>381</v>
+      </c>
+      <c r="F35" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1619</v>
+      </c>
+      <c r="B36" t="s">
+        <v>395</v>
+      </c>
+      <c r="C36" t="s">
+        <v>380</v>
+      </c>
+      <c r="D36" t="s">
+        <v>373</v>
+      </c>
+      <c r="E36" t="s">
+        <v>397</v>
+      </c>
+      <c r="F36" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1620</v>
+      </c>
+      <c r="B37" t="s">
+        <v>395</v>
+      </c>
+      <c r="C37" t="s">
+        <v>382</v>
+      </c>
+      <c r="D37" t="s">
+        <v>373</v>
+      </c>
+      <c r="E37" t="s">
+        <v>398</v>
+      </c>
+      <c r="F37" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>10.42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1611</v>
+      </c>
+      <c r="B38" t="s">
+        <v>395</v>
+      </c>
+      <c r="C38" t="s">
+        <v>386</v>
+      </c>
+      <c r="D38" t="s">
+        <v>373</v>
+      </c>
+      <c r="E38" t="s">
+        <v>399</v>
+      </c>
+      <c r="F38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1612</v>
+      </c>
+      <c r="B39" t="s">
+        <v>395</v>
+      </c>
+      <c r="C39" t="s">
+        <v>388</v>
+      </c>
+      <c r="D39" t="s">
+        <v>373</v>
+      </c>
+      <c r="E39" t="s">
+        <v>381</v>
+      </c>
+      <c r="F39" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1613</v>
+      </c>
+      <c r="B40" t="s">
+        <v>395</v>
+      </c>
+      <c r="C40" t="s">
+        <v>389</v>
+      </c>
+      <c r="D40" t="s">
+        <v>373</v>
+      </c>
+      <c r="E40" t="s">
+        <v>392</v>
+      </c>
+      <c r="F40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1614</v>
+      </c>
+      <c r="B41" t="s">
+        <v>395</v>
+      </c>
+      <c r="C41" t="s">
+        <v>391</v>
+      </c>
+      <c r="D41" t="s">
+        <v>373</v>
+      </c>
+      <c r="E41" t="s">
+        <v>400</v>
+      </c>
+      <c r="F41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1615</v>
+      </c>
+      <c r="B42" t="s">
+        <v>395</v>
+      </c>
+      <c r="C42" t="s">
+        <v>393</v>
+      </c>
+      <c r="D42" t="s">
+        <v>373</v>
+      </c>
+      <c r="E42" t="s">
+        <v>401</v>
+      </c>
+      <c r="F42" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>51</v>
+      </c>
+      <c r="B43" t="s">
+        <v>344</v>
+      </c>
+      <c r="C43" t="s">
+        <v>402</v>
+      </c>
+      <c r="D43" t="s">
+        <v>346</v>
+      </c>
+      <c r="E43">
+        <v>40</v>
+      </c>
+      <c r="F43" t="s">
+        <v>403</v>
+      </c>
+      <c r="G43" t="s">
+        <v>404</v>
+      </c>
+      <c r="H43">
+        <v>14.46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>339</v>
+      </c>
+      <c r="B44" t="s">
+        <v>344</v>
+      </c>
+      <c r="C44" t="s">
+        <v>402</v>
+      </c>
+      <c r="D44" t="s">
+        <v>348</v>
+      </c>
+      <c r="E44">
+        <v>32</v>
+      </c>
+      <c r="F44" t="s">
+        <v>403</v>
+      </c>
+      <c r="G44" t="s">
+        <v>404</v>
+      </c>
+      <c r="H44">
+        <v>16.579999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>349</v>
+      </c>
+      <c r="B45" t="s">
+        <v>344</v>
+      </c>
+      <c r="C45" t="s">
+        <v>402</v>
+      </c>
+      <c r="D45" t="s">
+        <v>350</v>
+      </c>
+      <c r="E45">
+        <v>32</v>
+      </c>
+      <c r="F45" t="s">
+        <v>403</v>
+      </c>
+      <c r="G45" t="s">
+        <v>404</v>
+      </c>
+      <c r="H45">
+        <v>19.22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>132</v>
+      </c>
+      <c r="B46" t="s">
+        <v>354</v>
+      </c>
+      <c r="C46" t="s">
+        <v>355</v>
+      </c>
+      <c r="D46" t="s">
+        <v>346</v>
+      </c>
+      <c r="E46">
+        <v>20</v>
+      </c>
+      <c r="F46" t="s">
+        <v>403</v>
+      </c>
+      <c r="G46" t="s">
+        <v>405</v>
+      </c>
+      <c r="H46">
+        <v>29.67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>294</v>
+      </c>
+      <c r="B47" t="s">
+        <v>354</v>
+      </c>
+      <c r="C47" t="s">
+        <v>355</v>
+      </c>
+      <c r="D47" t="s">
+        <v>348</v>
+      </c>
+      <c r="E47">
+        <v>20</v>
+      </c>
+      <c r="F47" t="s">
+        <v>403</v>
+      </c>
+      <c r="G47" t="s">
+        <v>406</v>
+      </c>
+      <c r="H47">
+        <v>30.58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>300</v>
+      </c>
+      <c r="B48" t="s">
+        <v>354</v>
+      </c>
+      <c r="C48" t="s">
+        <v>355</v>
+      </c>
+      <c r="D48" t="s">
+        <v>350</v>
+      </c>
+      <c r="E48">
+        <v>20</v>
+      </c>
+      <c r="F48" t="s">
+        <v>403</v>
+      </c>
+      <c r="G48" t="s">
+        <v>407</v>
+      </c>
+      <c r="H48">
+        <v>32.94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>152</v>
+      </c>
+      <c r="B49" t="s">
+        <v>362</v>
+      </c>
+      <c r="C49" t="s">
+        <v>402</v>
+      </c>
+      <c r="D49" t="s">
+        <v>346</v>
+      </c>
+      <c r="E49">
+        <v>1000</v>
+      </c>
+      <c r="F49" t="s">
+        <v>403</v>
+      </c>
+      <c r="H49">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>153</v>
+      </c>
+      <c r="B50" t="s">
+        <v>363</v>
+      </c>
+      <c r="C50" t="s">
+        <v>402</v>
+      </c>
+      <c r="D50" t="s">
+        <v>348</v>
+      </c>
+      <c r="E50">
+        <v>1000</v>
+      </c>
+      <c r="F50" t="s">
+        <v>403</v>
+      </c>
+      <c r="H50">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>154</v>
+      </c>
+      <c r="B51" t="s">
+        <v>364</v>
+      </c>
+      <c r="C51" t="s">
+        <v>402</v>
+      </c>
+      <c r="D51" t="s">
+        <v>350</v>
+      </c>
+      <c r="E51">
+        <v>1000</v>
+      </c>
+      <c r="F51" t="s">
+        <v>403</v>
+      </c>
+      <c r="H51">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>155</v>
+      </c>
+      <c r="B52" t="s">
+        <v>408</v>
+      </c>
+      <c r="C52" t="s">
+        <v>366</v>
+      </c>
+      <c r="E52">
+        <v>12</v>
+      </c>
+      <c r="F52" t="s">
+        <v>403</v>
+      </c>
+      <c r="G52" t="s">
+        <v>409</v>
+      </c>
+      <c r="H52">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>158</v>
+      </c>
+      <c r="B53" t="s">
+        <v>368</v>
+      </c>
+      <c r="C53" t="s">
+        <v>369</v>
+      </c>
+      <c r="E53">
+        <v>150</v>
+      </c>
+      <c r="F53" t="s">
+        <v>403</v>
+      </c>
+      <c r="G53" t="s">
+        <v>410</v>
+      </c>
+      <c r="H53">
+        <v>6.98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1957</v>
+      </c>
+      <c r="B54" t="s">
+        <v>344</v>
+      </c>
+      <c r="C54" t="s">
+        <v>411</v>
+      </c>
+      <c r="D54" t="s">
+        <v>346</v>
+      </c>
+      <c r="F54" t="s">
+        <v>412</v>
+      </c>
+      <c r="G54" t="s">
+        <v>404</v>
+      </c>
+      <c r="H54">
+        <v>27.88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1958</v>
+      </c>
+      <c r="B55" t="s">
+        <v>344</v>
+      </c>
+      <c r="C55" t="s">
+        <v>411</v>
+      </c>
+      <c r="D55" t="s">
+        <v>348</v>
+      </c>
+      <c r="F55" t="s">
+        <v>412</v>
+      </c>
+      <c r="G55" t="s">
+        <v>404</v>
+      </c>
+      <c r="H55">
+        <v>28.67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1959</v>
+      </c>
+      <c r="B56" t="s">
+        <v>344</v>
+      </c>
+      <c r="C56" t="s">
+        <v>411</v>
+      </c>
+      <c r="D56" t="s">
+        <v>350</v>
+      </c>
+      <c r="F56" t="s">
+        <v>412</v>
+      </c>
+      <c r="G56" t="s">
+        <v>404</v>
+      </c>
+      <c r="H56">
+        <v>30.77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1960</v>
+      </c>
+      <c r="B57" t="s">
+        <v>354</v>
+      </c>
+      <c r="C57" t="s">
+        <v>413</v>
+      </c>
+      <c r="D57" t="s">
+        <v>346</v>
+      </c>
+      <c r="F57" t="s">
+        <v>412</v>
+      </c>
+      <c r="G57" t="s">
+        <v>414</v>
+      </c>
+      <c r="H57">
+        <v>94.88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1961</v>
+      </c>
+      <c r="B58" t="s">
+        <v>354</v>
+      </c>
+      <c r="C58" t="s">
+        <v>413</v>
+      </c>
+      <c r="D58" t="s">
+        <v>348</v>
+      </c>
+      <c r="F58" t="s">
+        <v>412</v>
+      </c>
+      <c r="G58" t="s">
+        <v>415</v>
+      </c>
+      <c r="H58">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1962</v>
+      </c>
+      <c r="B59" t="s">
+        <v>354</v>
+      </c>
+      <c r="C59" t="s">
+        <v>413</v>
+      </c>
+      <c r="D59" t="s">
+        <v>350</v>
+      </c>
+      <c r="F59" t="s">
+        <v>412</v>
+      </c>
+      <c r="G59" t="s">
+        <v>416</v>
+      </c>
+      <c r="H59">
+        <v>107.44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1641</v>
+      </c>
+      <c r="B60" t="s">
+        <v>417</v>
+      </c>
+      <c r="C60" t="s">
+        <v>411</v>
+      </c>
+      <c r="D60" t="s">
+        <v>346</v>
+      </c>
+      <c r="F60" t="s">
+        <v>418</v>
+      </c>
+      <c r="H60">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1642</v>
+      </c>
+      <c r="B61" t="s">
+        <v>419</v>
+      </c>
+      <c r="C61" t="s">
+        <v>411</v>
+      </c>
+      <c r="D61" t="s">
+        <v>348</v>
+      </c>
+      <c r="F61" t="s">
+        <v>418</v>
+      </c>
+      <c r="H61">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1643</v>
+      </c>
+      <c r="B62" t="s">
+        <v>420</v>
+      </c>
+      <c r="C62" t="s">
+        <v>411</v>
+      </c>
+      <c r="D62" t="s">
+        <v>350</v>
+      </c>
+      <c r="F62" t="s">
+        <v>418</v>
+      </c>
+      <c r="H62">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1209</v>
+      </c>
+      <c r="B63" t="s">
+        <v>421</v>
+      </c>
+      <c r="C63" t="s">
+        <v>366</v>
+      </c>
+      <c r="F63" t="s">
+        <v>418</v>
+      </c>
+      <c r="G63" t="s">
+        <v>422</v>
+      </c>
+      <c r="H63">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1640</v>
+      </c>
+      <c r="B64" t="s">
+        <v>368</v>
+      </c>
+      <c r="C64" t="s">
+        <v>369</v>
+      </c>
+      <c r="F64" t="s">
+        <v>418</v>
+      </c>
+      <c r="G64" t="s">
+        <v>409</v>
+      </c>
+      <c r="H64">
+        <v>7.96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1639</v>
+      </c>
+      <c r="B65" t="s">
+        <v>368</v>
+      </c>
+      <c r="C65" t="s">
+        <v>370</v>
+      </c>
+      <c r="F65" t="s">
+        <v>418</v>
+      </c>
+      <c r="G65" t="s">
+        <v>409</v>
+      </c>
+      <c r="H65">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1787</v>
+      </c>
+      <c r="B66" t="s">
+        <v>371</v>
+      </c>
+      <c r="C66" t="s">
+        <v>372</v>
+      </c>
+      <c r="D66" t="s">
+        <v>373</v>
+      </c>
+      <c r="E66" t="s">
+        <v>374</v>
+      </c>
+      <c r="F66" t="s">
+        <v>418</v>
+      </c>
+      <c r="H66">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1656</v>
+      </c>
+      <c r="B67" t="s">
+        <v>371</v>
+      </c>
+      <c r="C67" t="s">
+        <v>375</v>
+      </c>
+      <c r="D67" t="s">
+        <v>373</v>
+      </c>
+      <c r="E67" t="s">
+        <v>376</v>
+      </c>
+      <c r="F67" t="s">
+        <v>418</v>
+      </c>
+      <c r="H67">
+        <v>4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1657</v>
+      </c>
+      <c r="B68" t="s">
+        <v>371</v>
+      </c>
+      <c r="C68" t="s">
+        <v>377</v>
+      </c>
+      <c r="D68" t="s">
+        <v>373</v>
+      </c>
+      <c r="E68" t="s">
+        <v>423</v>
+      </c>
+      <c r="F68" t="s">
+        <v>418</v>
+      </c>
+      <c r="H68">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1658</v>
+      </c>
+      <c r="B69" t="s">
+        <v>371</v>
+      </c>
+      <c r="C69" t="s">
+        <v>378</v>
+      </c>
+      <c r="D69" t="s">
+        <v>373</v>
+      </c>
+      <c r="E69" t="s">
+        <v>424</v>
+      </c>
+      <c r="F69" t="s">
+        <v>418</v>
+      </c>
+      <c r="H69">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1659</v>
+      </c>
+      <c r="B70" t="s">
+        <v>371</v>
+      </c>
+      <c r="C70" t="s">
+        <v>380</v>
+      </c>
+      <c r="D70" t="s">
+        <v>373</v>
+      </c>
+      <c r="E70" t="s">
+        <v>381</v>
+      </c>
+      <c r="F70" t="s">
+        <v>418</v>
+      </c>
+      <c r="H70">
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1660</v>
+      </c>
+      <c r="B71" t="s">
+        <v>371</v>
+      </c>
+      <c r="C71" t="s">
+        <v>382</v>
+      </c>
+      <c r="D71" t="s">
+        <v>373</v>
+      </c>
+      <c r="E71" t="s">
+        <v>425</v>
+      </c>
+      <c r="F71" t="s">
+        <v>418</v>
+      </c>
+      <c r="H71">
+        <v>12.58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1974</v>
+      </c>
+      <c r="B72" t="s">
+        <v>371</v>
+      </c>
+      <c r="C72" t="s">
+        <v>384</v>
+      </c>
+      <c r="D72" t="s">
+        <v>373</v>
+      </c>
+      <c r="E72" t="s">
+        <v>426</v>
+      </c>
+      <c r="F72" t="s">
+        <v>418</v>
+      </c>
+      <c r="H72">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1661</v>
+      </c>
+      <c r="B73" t="s">
+        <v>371</v>
+      </c>
+      <c r="C73" t="s">
+        <v>386</v>
+      </c>
+      <c r="D73" t="s">
+        <v>373</v>
+      </c>
+      <c r="E73" t="s">
+        <v>379</v>
+      </c>
+      <c r="F73" t="s">
+        <v>418</v>
+      </c>
+      <c r="H73">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1662</v>
+      </c>
+      <c r="B74" t="s">
+        <v>371</v>
+      </c>
+      <c r="C74" t="s">
+        <v>388</v>
+      </c>
+      <c r="D74" t="s">
+        <v>373</v>
+      </c>
+      <c r="E74" t="s">
+        <v>424</v>
+      </c>
+      <c r="F74" t="s">
+        <v>418</v>
+      </c>
+      <c r="H74">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1663</v>
+      </c>
+      <c r="B75" t="s">
+        <v>371</v>
+      </c>
+      <c r="C75" t="s">
+        <v>389</v>
+      </c>
+      <c r="D75" t="s">
+        <v>373</v>
+      </c>
+      <c r="E75" t="s">
+        <v>381</v>
+      </c>
+      <c r="F75" t="s">
+        <v>418</v>
+      </c>
+      <c r="H75">
+        <v>9.3699999999999992</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1664</v>
+      </c>
+      <c r="B76" t="s">
+        <v>371</v>
+      </c>
+      <c r="C76" t="s">
+        <v>391</v>
+      </c>
+      <c r="D76" t="s">
+        <v>373</v>
+      </c>
+      <c r="E76" t="s">
+        <v>392</v>
+      </c>
+      <c r="F76" t="s">
+        <v>418</v>
+      </c>
+      <c r="H76">
+        <v>12.03</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1665</v>
+      </c>
+      <c r="B77" t="s">
+        <v>371</v>
+      </c>
+      <c r="C77" t="s">
+        <v>393</v>
+      </c>
+      <c r="D77" t="s">
+        <v>373</v>
+      </c>
+      <c r="E77" t="s">
+        <v>427</v>
+      </c>
+      <c r="F77" t="s">
+        <v>418</v>
+      </c>
+      <c r="H77">
+        <v>17.34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1963</v>
+      </c>
+      <c r="B78" t="s">
+        <v>395</v>
+      </c>
+      <c r="C78" t="s">
+        <v>375</v>
+      </c>
+      <c r="D78" t="s">
+        <v>373</v>
+      </c>
+      <c r="E78" t="s">
+        <v>387</v>
+      </c>
+      <c r="F78" t="s">
+        <v>418</v>
+      </c>
+      <c r="H78">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1964</v>
+      </c>
+      <c r="B79" t="s">
+        <v>395</v>
+      </c>
+      <c r="C79" t="s">
+        <v>377</v>
+      </c>
+      <c r="D79" t="s">
+        <v>373</v>
+      </c>
+      <c r="E79" t="s">
+        <v>379</v>
+      </c>
+      <c r="F79" t="s">
+        <v>418</v>
+      </c>
+      <c r="H79">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1965</v>
+      </c>
+      <c r="B80" t="s">
+        <v>395</v>
+      </c>
+      <c r="C80" t="s">
+        <v>378</v>
+      </c>
+      <c r="D80" t="s">
+        <v>373</v>
+      </c>
+      <c r="E80" t="s">
+        <v>428</v>
+      </c>
+      <c r="F80" t="s">
+        <v>418</v>
+      </c>
+      <c r="H80">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1966</v>
+      </c>
+      <c r="B81" t="s">
+        <v>395</v>
+      </c>
+      <c r="C81" t="s">
+        <v>380</v>
+      </c>
+      <c r="D81" t="s">
+        <v>373</v>
+      </c>
+      <c r="E81" t="s">
+        <v>429</v>
+      </c>
+      <c r="F81" t="s">
+        <v>418</v>
+      </c>
+      <c r="H81">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1967</v>
+      </c>
+      <c r="B82" t="s">
+        <v>395</v>
+      </c>
+      <c r="C82" t="s">
+        <v>382</v>
+      </c>
+      <c r="D82" t="s">
+        <v>373</v>
+      </c>
+      <c r="E82" t="s">
+        <v>430</v>
+      </c>
+      <c r="F82" t="s">
+        <v>418</v>
+      </c>
+      <c r="H82">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1968</v>
+      </c>
+      <c r="B83" t="s">
+        <v>395</v>
+      </c>
+      <c r="C83" t="s">
+        <v>386</v>
+      </c>
+      <c r="D83" t="s">
+        <v>373</v>
+      </c>
+      <c r="E83" t="s">
+        <v>431</v>
+      </c>
+      <c r="F83" t="s">
+        <v>418</v>
+      </c>
+      <c r="H83">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1969</v>
+      </c>
+      <c r="B84" t="s">
+        <v>395</v>
+      </c>
+      <c r="C84" t="s">
+        <v>388</v>
+      </c>
+      <c r="D84" t="s">
+        <v>373</v>
+      </c>
+      <c r="E84" t="s">
+        <v>392</v>
+      </c>
+      <c r="F84" t="s">
+        <v>418</v>
+      </c>
+      <c r="H84">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1970</v>
+      </c>
+      <c r="B85" t="s">
+        <v>395</v>
+      </c>
+      <c r="C85" t="s">
+        <v>389</v>
+      </c>
+      <c r="D85" t="s">
+        <v>373</v>
+      </c>
+      <c r="E85" t="s">
+        <v>429</v>
+      </c>
+      <c r="F85" t="s">
+        <v>418</v>
+      </c>
+      <c r="H85">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1971</v>
+      </c>
+      <c r="B86" t="s">
+        <v>395</v>
+      </c>
+      <c r="C86" t="s">
+        <v>391</v>
+      </c>
+      <c r="D86" t="s">
+        <v>373</v>
+      </c>
+      <c r="E86" t="s">
+        <v>432</v>
+      </c>
+      <c r="F86" t="s">
+        <v>418</v>
+      </c>
+      <c r="H86">
+        <v>11.67</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1972</v>
+      </c>
+      <c r="B87" t="s">
+        <v>395</v>
+      </c>
+      <c r="C87" t="s">
+        <v>393</v>
+      </c>
+      <c r="D87" t="s">
+        <v>373</v>
+      </c>
+      <c r="E87" t="s">
+        <v>433</v>
+      </c>
+      <c r="F87" t="s">
+        <v>418</v>
+      </c>
+      <c r="H87">
+        <v>16.829999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>

--- a/dados/Produtos_Agrupados_Completos_conciliados.xlsx
+++ b/dados/Produtos_Agrupados_Completos_conciliados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINDOWS\Documents\AREA DE TRABALHO - MEDTEXTIL\CRM_APP\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E409C113-019B-4687-B60D-BB782EFDA009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71DEC03-B4E8-4A26-904F-869CA8D3812F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{86B17377-32DB-438B-8A03-02E761646E6D}"/>
   </bookViews>
@@ -1355,9 +1355,6 @@
     <t>26 DUZIAS</t>
   </si>
   <si>
-    <t>Coluna1</t>
-  </si>
-  <si>
     <t>Cod</t>
   </si>
   <si>
@@ -1377,6 +1374,9 @@
   </si>
   <si>
     <t>Preco</t>
+  </si>
+  <si>
+    <t>PRECO</t>
   </si>
 </sst>
 </file>
@@ -1499,7 +1499,7 @@
     <tableColumn id="5" xr3:uid="{5AEAA593-AC57-42D0-80C6-A7ADC3170E25}" uniqueName="5" name="Gramatura" queryTableFieldId="5" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{F34DF2E2-4CF9-47F8-995C-D81C98BE9A01}" uniqueName="6" name="CX_EMB" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{A488A8F9-38D4-4F27-9DEA-CC2F81D9C55C}" uniqueName="7" name="DESCRICAONF" queryTableFieldId="7"/>
-    <tableColumn id="9" xr3:uid="{079BA53C-EB2B-4DA2-B65C-026F685E0107}" uniqueName="9" name="Coluna1" queryTableFieldId="9" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{079BA53C-EB2B-4DA2-B65C-026F685E0107}" uniqueName="9" name="PRECO" queryTableFieldId="9" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1822,7 +1822,7 @@
   <dimension ref="A1:H364"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1860,7 +1860,7 @@
         <v>342</v>
       </c>
       <c r="H1" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -11195,28 +11195,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B1" t="s">
         <v>435</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>436</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>437</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>438</v>
-      </c>
-      <c r="E1" t="s">
-        <v>439</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
+        <v>439</v>
+      </c>
+      <c r="H1" t="s">
         <v>440</v>
-      </c>
-      <c r="H1" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">

--- a/dados/Produtos_Agrupados_Completos_conciliados.xlsx
+++ b/dados/Produtos_Agrupados_Completos_conciliados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINDOWS\Documents\AREA DE TRABALHO - MEDTEXTIL\CRM_APP\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71DEC03-B4E8-4A26-904F-869CA8D3812F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E269DDCE-2214-413C-8DAA-C2E56F2A3D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{86B17377-32DB-438B-8A03-02E761646E6D}"/>
   </bookViews>
@@ -1501,7 +1501,7 @@
     <tableColumn id="7" xr3:uid="{A488A8F9-38D4-4F27-9DEA-CC2F81D9C55C}" uniqueName="7" name="DESCRICAONF" queryTableFieldId="7"/>
     <tableColumn id="9" xr3:uid="{079BA53C-EB2B-4DA2-B65C-026F685E0107}" uniqueName="9" name="PRECO" queryTableFieldId="9" dataCellStyle="Moeda"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1822,7 +1822,7 @@
   <dimension ref="A1:H364"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dados/Produtos_Agrupados_Completos_conciliados.xlsx
+++ b/dados/Produtos_Agrupados_Completos_conciliados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINDOWS\Documents\AREA DE TRABALHO - MEDTEXTIL\CRM_APP\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E269DDCE-2214-413C-8DAA-C2E56F2A3D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25603DAA-76F2-4F24-B5BB-1B38DE617100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{86B17377-32DB-438B-8A03-02E761646E6D}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2594" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2548" uniqueCount="442">
   <si>
     <t>Grupo</t>
   </si>
@@ -1473,7 +1473,7 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DadosExternos_1" connectionId="1" xr16:uid="{90421B2D-B31B-4527-AFD6-AE2D0A530A0F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="11" unboundColumnsRight="1">
+  <queryTableRefresh nextId="12" unboundColumnsRight="1">
     <queryTableFields count="8">
       <queryTableField id="1" name="Grupo" tableColumnId="1"/>
       <queryTableField id="2" name="Cód." tableColumnId="2"/>
@@ -1822,7 +1822,7 @@
   <dimension ref="A1:H364"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6992,9 +6992,6 @@
       <c r="A199" t="s">
         <v>28</v>
       </c>
-      <c r="B199" t="s">
-        <v>10</v>
-      </c>
       <c r="C199" t="s">
         <v>35</v>
       </c>
@@ -7041,9 +7038,6 @@
       <c r="A201" t="s">
         <v>28</v>
       </c>
-      <c r="B201" t="s">
-        <v>10</v>
-      </c>
       <c r="C201" t="s">
         <v>37</v>
       </c>
@@ -7168,9 +7162,6 @@
       <c r="A206" t="s">
         <v>28</v>
       </c>
-      <c r="B206" t="s">
-        <v>10</v>
-      </c>
       <c r="C206" t="s">
         <v>42</v>
       </c>
@@ -7217,9 +7208,6 @@
       <c r="A208" t="s">
         <v>28</v>
       </c>
-      <c r="B208" t="s">
-        <v>10</v>
-      </c>
       <c r="C208" t="s">
         <v>45</v>
       </c>
@@ -7232,8 +7220,8 @@
       <c r="F208" t="s">
         <v>10</v>
       </c>
-      <c r="H208" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H208" s="2">
+        <v>4.2699999999999996</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -7258,8 +7246,8 @@
       <c r="G209" t="s">
         <v>113</v>
       </c>
-      <c r="H209" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H209" s="2">
+        <v>4.6399999999999997</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -7284,8 +7272,8 @@
       <c r="G210" t="s">
         <v>75</v>
       </c>
-      <c r="H210" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H210" s="2">
+        <v>5.74</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -7310,8 +7298,8 @@
       <c r="G211" t="s">
         <v>140</v>
       </c>
-      <c r="H211" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H211" s="2">
+        <v>6.57</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -7336,17 +7324,14 @@
       <c r="G212" t="s">
         <v>90</v>
       </c>
-      <c r="H212" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H212" s="2">
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>28</v>
       </c>
-      <c r="B213" t="s">
-        <v>10</v>
-      </c>
       <c r="C213" t="s">
         <v>50</v>
       </c>
@@ -7385,17 +7370,14 @@
       <c r="G214" t="s">
         <v>99</v>
       </c>
-      <c r="H214" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H214" s="2">
+        <v>12.58</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>28</v>
       </c>
-      <c r="B215" t="s">
-        <v>10</v>
-      </c>
       <c r="C215" t="s">
         <v>52</v>
       </c>
@@ -7434,8 +7416,8 @@
       <c r="G216" t="s">
         <v>73</v>
       </c>
-      <c r="H216" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H216" s="2">
+        <v>6.41</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -7460,8 +7442,8 @@
       <c r="G217" t="s">
         <v>79</v>
       </c>
-      <c r="H217" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H217" s="2">
+        <v>7.92</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -7486,8 +7468,8 @@
       <c r="G218" t="s">
         <v>86</v>
       </c>
-      <c r="H218" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H218" s="2">
+        <v>9.3699999999999992</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -7512,17 +7494,14 @@
       <c r="G219" t="s">
         <v>94</v>
       </c>
-      <c r="H219" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H219" s="2">
+        <v>12.03</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>28</v>
       </c>
-      <c r="B220" t="s">
-        <v>10</v>
-      </c>
       <c r="C220" t="s">
         <v>57</v>
       </c>
@@ -7561,17 +7540,14 @@
       <c r="G221" t="s">
         <v>104</v>
       </c>
-      <c r="H221" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H221" s="2">
+        <v>17.34</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>28</v>
       </c>
-      <c r="B222" t="s">
-        <v>10</v>
-      </c>
       <c r="C222" t="s">
         <v>30</v>
       </c>
@@ -7584,8 +7560,8 @@
       <c r="F222" t="s">
         <v>10</v>
       </c>
-      <c r="H222" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H222" s="2">
+        <v>3.66</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -7610,8 +7586,8 @@
       <c r="G223" t="s">
         <v>112</v>
       </c>
-      <c r="H223" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H223" s="2">
+        <v>3.97</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -7636,8 +7612,8 @@
       <c r="G224" t="s">
         <v>127</v>
       </c>
-      <c r="H224" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H224" s="2">
+        <v>4.91</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -7662,8 +7638,8 @@
       <c r="G225" t="s">
         <v>138</v>
       </c>
-      <c r="H225" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H225" s="2">
+        <v>5.63</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -7688,17 +7664,14 @@
       <c r="G226" t="s">
         <v>150</v>
       </c>
-      <c r="H226" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H226" s="2">
+        <v>7.25</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>28</v>
       </c>
-      <c r="B227" t="s">
-        <v>10</v>
-      </c>
       <c r="C227" t="s">
         <v>35</v>
       </c>
@@ -7737,17 +7710,14 @@
       <c r="G228" t="s">
         <v>158</v>
       </c>
-      <c r="H228" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H228" s="2">
+        <v>10.74</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>28</v>
       </c>
-      <c r="B229" t="s">
-        <v>10</v>
-      </c>
       <c r="C229" t="s">
         <v>37</v>
       </c>
@@ -7786,8 +7756,8 @@
       <c r="G230" t="s">
         <v>118</v>
       </c>
-      <c r="H230" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H230" s="2">
+        <v>5.38</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -7812,8 +7782,8 @@
       <c r="G231" t="s">
         <v>133</v>
       </c>
-      <c r="H231" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H231" s="2">
+        <v>6.78</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -7838,8 +7808,8 @@
       <c r="G232" t="s">
         <v>146</v>
       </c>
-      <c r="H232" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H232" s="2">
+        <v>7.94</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -7864,17 +7834,14 @@
       <c r="G233" t="s">
         <v>156</v>
       </c>
-      <c r="H233" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H233" s="2">
+        <v>10.3</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>28</v>
       </c>
-      <c r="B234" t="s">
-        <v>10</v>
-      </c>
       <c r="C234" t="s">
         <v>42</v>
       </c>
@@ -7913,17 +7880,14 @@
       <c r="G235" t="s">
         <v>166</v>
       </c>
-      <c r="H235" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H235" s="2">
+        <v>14.74</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>28</v>
       </c>
-      <c r="B236" t="s">
-        <v>10</v>
-      </c>
       <c r="C236" t="s">
         <v>45</v>
       </c>
@@ -7936,8 +7900,8 @@
       <c r="F236" t="s">
         <v>10</v>
       </c>
-      <c r="H236" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H236" s="2">
+        <v>4.2699999999999996</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -7962,8 +7926,8 @@
       <c r="G237" t="s">
         <v>113</v>
       </c>
-      <c r="H237" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H237" s="2">
+        <v>4.6399999999999997</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -7988,8 +7952,8 @@
       <c r="G238" t="s">
         <v>128</v>
       </c>
-      <c r="H238" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H238" s="2">
+        <v>5.74</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -8014,8 +7978,8 @@
       <c r="G239" t="s">
         <v>140</v>
       </c>
-      <c r="H239" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H239" s="2">
+        <v>6.57</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -8040,17 +8004,14 @@
       <c r="G240" t="s">
         <v>153</v>
       </c>
-      <c r="H240" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H240" s="2">
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>28</v>
       </c>
-      <c r="B241" t="s">
-        <v>10</v>
-      </c>
       <c r="C241" t="s">
         <v>50</v>
       </c>
@@ -8089,17 +8050,14 @@
       <c r="G242" t="s">
         <v>161</v>
       </c>
-      <c r="H242" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H242" s="2">
+        <v>12.58</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>28</v>
       </c>
-      <c r="B243" t="s">
-        <v>10</v>
-      </c>
       <c r="C243" t="s">
         <v>52</v>
       </c>
@@ -8138,8 +8096,8 @@
       <c r="G244" t="s">
         <v>122</v>
       </c>
-      <c r="H244" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H244" s="2">
+        <v>6.41</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
@@ -8164,8 +8122,8 @@
       <c r="G245" t="s">
         <v>134</v>
       </c>
-      <c r="H245" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H245" s="2">
+        <v>7.92</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
@@ -8190,8 +8148,8 @@
       <c r="G246" t="s">
         <v>173</v>
       </c>
-      <c r="H246" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H246" s="2">
+        <v>9.3699999999999992</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
@@ -8216,17 +8174,14 @@
       <c r="G247" t="s">
         <v>174</v>
       </c>
-      <c r="H247" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H247" s="2">
+        <v>12.03</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>28</v>
       </c>
-      <c r="B248" t="s">
-        <v>10</v>
-      </c>
       <c r="C248" t="s">
         <v>57</v>
       </c>
@@ -8265,17 +8220,14 @@
       <c r="G249" t="s">
         <v>168</v>
       </c>
-      <c r="H249" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H249" s="2">
+        <v>17.34</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>28</v>
       </c>
-      <c r="B250" t="s">
-        <v>10</v>
-      </c>
       <c r="C250" t="s">
         <v>30</v>
       </c>
@@ -8288,8 +8240,8 @@
       <c r="F250" t="s">
         <v>10</v>
       </c>
-      <c r="H250" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H250" s="2">
+        <v>3.66</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
@@ -8314,8 +8266,8 @@
       <c r="G251" t="s">
         <v>111</v>
       </c>
-      <c r="H251" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H251" s="2">
+        <v>3.97</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
@@ -8340,8 +8292,8 @@
       <c r="G252" t="s">
         <v>74</v>
       </c>
-      <c r="H252" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H252" s="2">
+        <v>4.91</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
@@ -8366,8 +8318,8 @@
       <c r="G253" t="s">
         <v>81</v>
       </c>
-      <c r="H253" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H253" s="2">
+        <v>5.63</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
@@ -8392,17 +8344,14 @@
       <c r="G254" t="s">
         <v>149</v>
       </c>
-      <c r="H254" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H254" s="2">
+        <v>7.25</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>28</v>
       </c>
-      <c r="B255" t="s">
-        <v>10</v>
-      </c>
       <c r="C255" t="s">
         <v>35</v>
       </c>
@@ -8441,17 +8390,14 @@
       <c r="G256" t="s">
         <v>97</v>
       </c>
-      <c r="H256" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H256" s="2">
+        <v>10.74</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>28</v>
       </c>
-      <c r="B257" t="s">
-        <v>10</v>
-      </c>
       <c r="C257" t="s">
         <v>37</v>
       </c>
@@ -8490,8 +8436,8 @@
       <c r="G258" t="s">
         <v>72</v>
       </c>
-      <c r="H258" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H258" s="2">
+        <v>5.38</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
@@ -8516,8 +8462,8 @@
       <c r="G259" t="s">
         <v>130</v>
       </c>
-      <c r="H259" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H259" s="2">
+        <v>6.78</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
@@ -8542,8 +8488,8 @@
       <c r="G260" t="s">
         <v>144</v>
       </c>
-      <c r="H260" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H260" s="2">
+        <v>7.94</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
@@ -8568,17 +8514,14 @@
       <c r="G261" t="s">
         <v>92</v>
       </c>
-      <c r="H261" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H261" s="2">
+        <v>10.3</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>28</v>
       </c>
-      <c r="B262" t="s">
-        <v>10</v>
-      </c>
       <c r="C262" t="s">
         <v>42</v>
       </c>
@@ -8617,8 +8560,8 @@
       <c r="G263" t="s">
         <v>102</v>
       </c>
-      <c r="H263" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H263" s="2">
+        <v>14.74</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
@@ -8755,9 +8698,6 @@
       <c r="A269" t="s">
         <v>28</v>
       </c>
-      <c r="B269" t="s">
-        <v>10</v>
-      </c>
       <c r="C269" t="s">
         <v>50</v>
       </c>
@@ -8804,9 +8744,6 @@
       <c r="A271" t="s">
         <v>28</v>
       </c>
-      <c r="B271" t="s">
-        <v>10</v>
-      </c>
       <c r="C271" t="s">
         <v>52</v>
       </c>
@@ -8931,9 +8868,6 @@
       <c r="A276" t="s">
         <v>28</v>
       </c>
-      <c r="B276" t="s">
-        <v>10</v>
-      </c>
       <c r="C276" t="s">
         <v>57</v>
       </c>
@@ -8980,9 +8914,6 @@
       <c r="A278" t="s">
         <v>63</v>
       </c>
-      <c r="B278" t="s">
-        <v>10</v>
-      </c>
       <c r="C278" t="s">
         <v>30</v>
       </c>
@@ -9107,9 +9038,6 @@
       <c r="A283" t="s">
         <v>63</v>
       </c>
-      <c r="B283" t="s">
-        <v>10</v>
-      </c>
       <c r="C283" t="s">
         <v>35</v>
       </c>
@@ -9156,9 +9084,6 @@
       <c r="A285" t="s">
         <v>63</v>
       </c>
-      <c r="B285" t="s">
-        <v>10</v>
-      </c>
       <c r="C285" t="s">
         <v>37</v>
       </c>
@@ -9283,9 +9208,6 @@
       <c r="A290" t="s">
         <v>63</v>
       </c>
-      <c r="B290" t="s">
-        <v>10</v>
-      </c>
       <c r="C290" t="s">
         <v>42</v>
       </c>
@@ -9332,9 +9254,6 @@
       <c r="A292" t="s">
         <v>63</v>
       </c>
-      <c r="B292" t="s">
-        <v>10</v>
-      </c>
       <c r="C292" t="s">
         <v>45</v>
       </c>
@@ -9347,8 +9266,8 @@
       <c r="F292" t="s">
         <v>10</v>
       </c>
-      <c r="H292" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H292" s="2">
+        <v>4.2699999999999996</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
@@ -9373,8 +9292,8 @@
       <c r="G293" t="s">
         <v>114</v>
       </c>
-      <c r="H293" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H293" s="2">
+        <v>4.6399999999999997</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
@@ -9399,8 +9318,8 @@
       <c r="G294" t="s">
         <v>77</v>
       </c>
-      <c r="H294" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H294" s="2">
+        <v>5.74</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
@@ -9425,8 +9344,8 @@
       <c r="G295" t="s">
         <v>83</v>
       </c>
-      <c r="H295" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H295" s="2">
+        <v>6.57</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
@@ -9451,17 +9370,14 @@
       <c r="G296" t="s">
         <v>91</v>
       </c>
-      <c r="H296" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H296" s="2">
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>63</v>
       </c>
-      <c r="B297" t="s">
-        <v>10</v>
-      </c>
       <c r="C297" t="s">
         <v>50</v>
       </c>
@@ -9500,17 +9416,14 @@
       <c r="G298" t="s">
         <v>101</v>
       </c>
-      <c r="H298" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H298" s="2">
+        <v>12.58</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>63</v>
       </c>
-      <c r="B299" t="s">
-        <v>10</v>
-      </c>
       <c r="C299" t="s">
         <v>52</v>
       </c>
@@ -9549,8 +9462,8 @@
       <c r="G300" t="s">
         <v>124</v>
       </c>
-      <c r="H300" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H300" s="2">
+        <v>6.41</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
@@ -9575,8 +9488,8 @@
       <c r="G301" t="s">
         <v>135</v>
       </c>
-      <c r="H301" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H301" s="2">
+        <v>7.92</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
@@ -9601,8 +9514,8 @@
       <c r="G302" t="s">
         <v>148</v>
       </c>
-      <c r="H302" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H302" s="2">
+        <v>9.3699999999999992</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
@@ -9627,17 +9540,14 @@
       <c r="G303" t="s">
         <v>96</v>
       </c>
-      <c r="H303" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H303" s="2">
+        <v>12.03</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>63</v>
       </c>
-      <c r="B304" t="s">
-        <v>10</v>
-      </c>
       <c r="C304" t="s">
         <v>57</v>
       </c>
@@ -9676,17 +9586,14 @@
       <c r="G305" t="s">
         <v>170</v>
       </c>
-      <c r="H305" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H305" s="2">
+        <v>17.34</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>63</v>
       </c>
-      <c r="B306" t="s">
-        <v>10</v>
-      </c>
       <c r="C306" t="s">
         <v>30</v>
       </c>
@@ -9699,8 +9606,8 @@
       <c r="F306" t="s">
         <v>10</v>
       </c>
-      <c r="H306" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H306">
+        <v>3.66</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
@@ -9725,8 +9632,8 @@
       <c r="G307" t="s">
         <v>115</v>
       </c>
-      <c r="H307" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H307" s="2">
+        <v>3.85</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
@@ -9751,8 +9658,8 @@
       <c r="G308" t="s">
         <v>126</v>
       </c>
-      <c r="H308" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H308">
+        <v>4.91</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
@@ -9777,8 +9684,8 @@
       <c r="G309" t="s">
         <v>137</v>
       </c>
-      <c r="H309" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H309" s="2">
+        <v>5.47</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
@@ -9803,17 +9710,14 @@
       <c r="G310" t="s">
         <v>151</v>
       </c>
-      <c r="H310" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H310" s="2">
+        <v>7.03</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>63</v>
       </c>
-      <c r="B311" t="s">
-        <v>10</v>
-      </c>
       <c r="C311" t="s">
         <v>35</v>
       </c>
@@ -9852,17 +9756,14 @@
       <c r="G312" t="s">
         <v>159</v>
       </c>
-      <c r="H312" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H312">
+        <v>10.74</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>63</v>
       </c>
-      <c r="B313" t="s">
-        <v>10</v>
-      </c>
       <c r="C313" t="s">
         <v>37</v>
       </c>
@@ -9901,8 +9802,8 @@
       <c r="G314" t="s">
         <v>119</v>
       </c>
-      <c r="H314" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H314" s="2">
+        <v>5.38</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
@@ -9927,8 +9828,8 @@
       <c r="G315" t="s">
         <v>131</v>
       </c>
-      <c r="H315" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H315" s="2">
+        <v>6.78</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
@@ -9953,8 +9854,8 @@
       <c r="G316" t="s">
         <v>145</v>
       </c>
-      <c r="H316" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H316" s="2">
+        <v>7.94</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
@@ -9979,17 +9880,14 @@
       <c r="G317" t="s">
         <v>155</v>
       </c>
-      <c r="H317" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H317" s="2">
+        <v>10.3</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>63</v>
       </c>
-      <c r="B318" t="s">
-        <v>10</v>
-      </c>
       <c r="C318" t="s">
         <v>42</v>
       </c>
@@ -10028,17 +9926,14 @@
       <c r="G319" t="s">
         <v>163</v>
       </c>
-      <c r="H319" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H319">
+        <v>14.74</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>63</v>
       </c>
-      <c r="B320" t="s">
-        <v>10</v>
-      </c>
       <c r="C320" t="s">
         <v>45</v>
       </c>
@@ -10051,8 +9946,8 @@
       <c r="F320" t="s">
         <v>10</v>
       </c>
-      <c r="H320" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H320" s="2">
+        <v>4.2699999999999996</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
@@ -10077,8 +9972,8 @@
       <c r="G321" t="s">
         <v>116</v>
       </c>
-      <c r="H321" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H321" s="2">
+        <v>4.6399999999999997</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
@@ -10103,8 +9998,8 @@
       <c r="G322" t="s">
         <v>129</v>
       </c>
-      <c r="H322" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H322" s="2">
+        <v>5.74</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
@@ -10129,8 +10024,8 @@
       <c r="G323" t="s">
         <v>143</v>
       </c>
-      <c r="H323" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H323" s="2">
+        <v>6.57</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
@@ -10155,17 +10050,14 @@
       <c r="G324" t="s">
         <v>152</v>
       </c>
-      <c r="H324" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H324" s="2">
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>63</v>
       </c>
-      <c r="B325" t="s">
-        <v>10</v>
-      </c>
       <c r="C325" t="s">
         <v>50</v>
       </c>
@@ -10204,17 +10096,14 @@
       <c r="G326" t="s">
         <v>160</v>
       </c>
-      <c r="H326" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H326" s="2">
+        <v>12.58</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>63</v>
       </c>
-      <c r="B327" t="s">
-        <v>10</v>
-      </c>
       <c r="C327" t="s">
         <v>52</v>
       </c>
@@ -10253,8 +10142,8 @@
       <c r="G328" t="s">
         <v>120</v>
       </c>
-      <c r="H328" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H328" s="2">
+        <v>6.41</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
@@ -10279,8 +10168,8 @@
       <c r="G329" t="s">
         <v>132</v>
       </c>
-      <c r="H329" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H329" s="2">
+        <v>7.92</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
@@ -10305,8 +10194,8 @@
       <c r="G330" t="s">
         <v>147</v>
       </c>
-      <c r="H330" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H330" s="2">
+        <v>9.3699999999999992</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
@@ -10331,17 +10220,14 @@
       <c r="G331" t="s">
         <v>157</v>
       </c>
-      <c r="H331" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H331" s="2">
+        <v>12.03</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>63</v>
       </c>
-      <c r="B332" t="s">
-        <v>10</v>
-      </c>
       <c r="C332" t="s">
         <v>57</v>
       </c>
@@ -10380,17 +10266,14 @@
       <c r="G333" t="s">
         <v>164</v>
       </c>
-      <c r="H333" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H333" s="2">
+        <v>17.34</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>63</v>
       </c>
-      <c r="B334" t="s">
-        <v>10</v>
-      </c>
       <c r="C334" t="s">
         <v>30</v>
       </c>
@@ -10403,8 +10286,8 @@
       <c r="F334" t="s">
         <v>10</v>
       </c>
-      <c r="H334" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H334" s="2">
+        <v>3.66</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
@@ -10429,8 +10312,8 @@
       <c r="G335" t="s">
         <v>70</v>
       </c>
-      <c r="H335" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H335" s="2">
+        <v>3.97</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
@@ -10455,8 +10338,8 @@
       <c r="G336" t="s">
         <v>125</v>
       </c>
-      <c r="H336" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H336" s="2">
+        <v>4.91</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
@@ -10481,8 +10364,8 @@
       <c r="G337" t="s">
         <v>81</v>
       </c>
-      <c r="H337" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H337" s="2">
+        <v>5.63</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
@@ -10507,17 +10390,14 @@
       <c r="G338" t="s">
         <v>88</v>
       </c>
-      <c r="H338" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H338" s="2">
+        <v>7.25</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>63</v>
       </c>
-      <c r="B339" t="s">
-        <v>10</v>
-      </c>
       <c r="C339" t="s">
         <v>35</v>
       </c>
@@ -10556,17 +10436,14 @@
       <c r="G340" t="s">
         <v>97</v>
       </c>
-      <c r="H340" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H340" s="2">
+        <v>10.74</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>63</v>
       </c>
-      <c r="B341" t="s">
-        <v>10</v>
-      </c>
       <c r="C341" t="s">
         <v>37</v>
       </c>
@@ -10605,8 +10482,8 @@
       <c r="G342" t="s">
         <v>72</v>
       </c>
-      <c r="H342" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H342" s="2">
+        <v>5.38</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
@@ -10631,8 +10508,8 @@
       <c r="G343" t="s">
         <v>78</v>
       </c>
-      <c r="H343" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H343" s="2">
+        <v>6.78</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
@@ -10657,8 +10534,8 @@
       <c r="G344" t="s">
         <v>84</v>
       </c>
-      <c r="H344" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H344" s="2">
+        <v>7.94</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.25">
@@ -10683,17 +10560,14 @@
       <c r="G345" t="s">
         <v>92</v>
       </c>
-      <c r="H345" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H345" s="2">
+        <v>10.3</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>63</v>
       </c>
-      <c r="B346" t="s">
-        <v>10</v>
-      </c>
       <c r="C346" t="s">
         <v>42</v>
       </c>
@@ -10732,17 +10606,14 @@
       <c r="G347" t="s">
         <v>102</v>
       </c>
-      <c r="H347" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H347" s="2">
+        <v>14.74</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>63</v>
       </c>
-      <c r="B348" t="s">
-        <v>10</v>
-      </c>
       <c r="C348" t="s">
         <v>45</v>
       </c>
@@ -10755,8 +10626,8 @@
       <c r="F348" t="s">
         <v>10</v>
       </c>
-      <c r="H348" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H348" s="2">
+        <v>4.2699999999999996</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
@@ -10781,8 +10652,8 @@
       <c r="G349" t="s">
         <v>111</v>
       </c>
-      <c r="H349" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H349" s="2">
+        <v>4.6399999999999997</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
@@ -10807,8 +10678,8 @@
       <c r="G350" t="s">
         <v>74</v>
       </c>
-      <c r="H350" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H350" s="2">
+        <v>5.74</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
@@ -10833,8 +10704,8 @@
       <c r="G351" t="s">
         <v>136</v>
       </c>
-      <c r="H351" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H351" s="2">
+        <v>6.57</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
@@ -10859,17 +10730,14 @@
       <c r="G352" t="s">
         <v>88</v>
       </c>
-      <c r="H352" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H352" s="2">
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>63</v>
       </c>
-      <c r="B353" t="s">
-        <v>10</v>
-      </c>
       <c r="C353" t="s">
         <v>50</v>
       </c>
@@ -10908,17 +10776,14 @@
       <c r="G354" t="s">
         <v>97</v>
       </c>
-      <c r="H354" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H354" s="2">
+        <v>12.58</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>63</v>
       </c>
-      <c r="B355" t="s">
-        <v>10</v>
-      </c>
       <c r="C355" t="s">
         <v>52</v>
       </c>
@@ -10957,8 +10822,8 @@
       <c r="G356" t="s">
         <v>117</v>
       </c>
-      <c r="H356" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H356" s="2">
+        <v>6.41</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
@@ -10983,8 +10848,8 @@
       <c r="G357" t="s">
         <v>130</v>
       </c>
-      <c r="H357" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H357" s="2">
+        <v>7.92</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
@@ -11009,8 +10874,8 @@
       <c r="G358" t="s">
         <v>144</v>
       </c>
-      <c r="H358" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H358" s="2">
+        <v>9.3699999999999992</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
@@ -11035,17 +10900,14 @@
       <c r="G359" t="s">
         <v>92</v>
       </c>
-      <c r="H359" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H359" s="2">
+        <v>12.03</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>63</v>
       </c>
-      <c r="B360" t="s">
-        <v>10</v>
-      </c>
       <c r="C360" t="s">
         <v>57</v>
       </c>
@@ -11084,8 +10946,8 @@
       <c r="G361" t="s">
         <v>102</v>
       </c>
-      <c r="H361" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H361" s="2">
+        <v>17.34</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
